--- a/_class_tt.xlsx
+++ b/_class_tt.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Faculty _TT " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'Faculty _TT '!$A$1:$L$15</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$15</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -620,6 +620,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -649,12 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -710,10 +710,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1035,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="17"/>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="9">
         <v>1</v>
       </c>
@@ -1053,8 +1055,8 @@
       <c r="I1" s="22">
         <v>5</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="68">
+      <c r="J1" s="39"/>
+      <c r="K1" s="38">
         <v>6</v>
       </c>
       <c r="L1" s="22">
@@ -1079,7 +1081,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1101,7 @@
       <c r="I2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1122,10 +1124,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -1164,8 +1166,8 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="25"/>
       <c r="D4" s="24"/>
       <c r="E4" s="56"/>
@@ -1192,8 +1194,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1232,8 +1234,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1264,8 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -1298,8 +1300,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="25"/>
       <c r="D8" s="62" t="s">
         <v>13</v>
@@ -1328,8 +1330,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -1368,7 +1370,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="63"/>
       <c r="C10" s="32" t="s">
         <v>16</v>
@@ -1378,7 +1380,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
       <c r="H10" s="66"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="62"/>
@@ -1398,8 +1400,8 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" s="21" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -1442,8 +1444,8 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
@@ -1479,8 +1481,8 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="60"/>
@@ -1489,10 +1491,10 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="67"/>
       <c r="N13" s="67"/>
       <c r="O13" s="1"/>
@@ -1508,7 +1510,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="50" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1542,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="41"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="51"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
@@ -23267,7 +23269,6 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:L15"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E9:E13"/>
@@ -23284,6 +23285,7 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.43333333333333335" right="0.2" top="0.2298611111111111" bottom="0.3298611111111111" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/_class_tt.xlsx
+++ b/_class_tt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpark\Desktop\project\rpms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6E0EC-9817-430E-A3FE-2AD76DD745C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>12.35-1.35</t>
   </si>
@@ -69,9 +75,6 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>LIB</t>
-  </si>
-  <si>
     <t>S7 CS C</t>
   </si>
   <si>
@@ -114,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -626,41 +629,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,11 +671,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -707,14 +686,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,6 +725,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -768,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +811,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +863,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,35 +1056,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="26" width="9.7109375" customWidth="1"/>
+    <col min="15" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
-      <c r="B1" s="46"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="9">
         <v>1</v>
       </c>
@@ -1062,10 +1109,10 @@
       <c r="L1" s="22">
         <v>7</v>
       </c>
-      <c r="M1" s="67" t="s">
-        <v>25</v>
+      <c r="M1" s="40" t="s">
+        <v>24</v>
       </c>
-      <c r="N1" s="67"/>
+      <c r="N1" s="40"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1079,9 +1126,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
-      <c r="B2" s="47"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1155,8 @@
       <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1123,35 +1170,35 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>19</v>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>18</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="27" t="s">
-        <v>15</v>
+      <c r="H3" s="57"/>
+      <c r="I3" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1165,21 +1212,21 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="25"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="56"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1193,33 +1240,33 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
+      <c r="B5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="23" t="s">
-        <v>23</v>
+      <c r="H5" s="58"/>
+      <c r="I5" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1233,23 +1280,23 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1263,29 +1310,29 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>17</v>
+      <c r="D7" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="61" t="s">
-        <v>17</v>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1299,23 +1346,23 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1329,33 +1376,33 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>23</v>
+      <c r="H9" s="58"/>
+      <c r="I9" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1369,23 +1416,23 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="63"/>
+    <row r="10" spans="1:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1399,9 +1446,9 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" s="21" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="1:26" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -1410,26 +1457,26 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1443,31 +1490,31 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>23</v>
+      <c r="H12" s="57"/>
+      <c r="I12" s="42" t="s">
+        <v>16</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1480,23 +1527,23 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="60"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1509,25 +1556,25 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>24</v>
+      <c r="C14" s="45" t="s">
+        <v>23</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1541,21 +1588,21 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="62"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1569,7 +1616,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
@@ -1585,7 +1632,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1">
+    <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1602,7 +1649,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1">
+    <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1619,7 +1666,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1">
+    <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1635,7 +1682,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1">
+    <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1651,7 +1698,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1">
+    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1667,7 +1714,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1">
+    <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1683,7 +1730,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1">
+    <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1699,7 +1746,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1">
+    <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1715,7 +1762,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1">
+    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1731,7 +1778,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="19.5" customHeight="1">
+    <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1747,7 +1794,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="19.5" customHeight="1">
+    <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1763,7 +1810,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" customHeight="1">
+    <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1779,7 +1826,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" customHeight="1">
+    <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1795,7 +1842,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" customHeight="1">
+    <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1811,7 +1858,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" customHeight="1">
+    <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1827,7 +1874,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="19.5" customHeight="1">
+    <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1843,7 +1890,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="19.5" customHeight="1">
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1859,7 +1906,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="19.5" customHeight="1">
+    <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1875,7 +1922,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="19.5" customHeight="1">
+    <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1891,7 +1938,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="19.5" customHeight="1">
+    <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1907,7 +1954,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="19.5" customHeight="1">
+    <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1923,7 +1970,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="19.5" customHeight="1">
+    <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1939,7 +1986,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="19.5" customHeight="1">
+    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1955,7 +2002,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="19.5" customHeight="1">
+    <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1971,7 +2018,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="19.5" customHeight="1">
+    <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1987,7 +2034,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="19.5" customHeight="1">
+    <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2003,7 +2050,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="19.5" customHeight="1">
+    <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2019,7 +2066,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="19.5" customHeight="1">
+    <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2035,7 +2082,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="19.5" customHeight="1">
+    <row r="45" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2051,7 +2098,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="19.5" customHeight="1">
+    <row r="46" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2067,7 +2114,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="19.5" customHeight="1">
+    <row r="47" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2083,7 +2130,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="19.5" customHeight="1">
+    <row r="48" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2099,7 +2146,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="19.5" customHeight="1">
+    <row r="49" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2115,7 +2162,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="19.5" customHeight="1">
+    <row r="50" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2131,7 +2178,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="19.5" customHeight="1">
+    <row r="51" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2147,7 +2194,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="19.5" customHeight="1">
+    <row r="52" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2163,7 +2210,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="19.5" customHeight="1">
+    <row r="53" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2179,7 +2226,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="19.5" customHeight="1">
+    <row r="54" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2195,7 +2242,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="19.5" customHeight="1">
+    <row r="55" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2211,7 +2258,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="19.5" customHeight="1">
+    <row r="56" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2227,7 +2274,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="19.5" customHeight="1">
+    <row r="57" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2243,7 +2290,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="19.5" customHeight="1">
+    <row r="58" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2259,7 +2306,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="19.5" customHeight="1">
+    <row r="59" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2275,7 +2322,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="19.5" customHeight="1">
+    <row r="60" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2291,7 +2338,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="19.5" customHeight="1">
+    <row r="61" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2307,7 +2354,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="19.5" customHeight="1">
+    <row r="62" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2323,7 +2370,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="19.5" customHeight="1">
+    <row r="63" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2339,7 +2386,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="19.5" customHeight="1">
+    <row r="64" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2355,7 +2402,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="19.5" customHeight="1">
+    <row r="65" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2371,7 +2418,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="19.5" customHeight="1">
+    <row r="66" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2387,7 +2434,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="19.5" customHeight="1">
+    <row r="67" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2403,7 +2450,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="19.5" customHeight="1">
+    <row r="68" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2419,7 +2466,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="19.5" customHeight="1">
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2435,7 +2482,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="19.5" customHeight="1">
+    <row r="70" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2451,7 +2498,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="19.5" customHeight="1">
+    <row r="71" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2467,7 +2514,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="19.5" customHeight="1">
+    <row r="72" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2483,7 +2530,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="19.5" customHeight="1">
+    <row r="73" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2499,7 +2546,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="19.5" customHeight="1">
+    <row r="74" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2515,7 +2562,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="19.5" customHeight="1">
+    <row r="75" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2531,7 +2578,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="19.5" customHeight="1">
+    <row r="76" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2547,7 +2594,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="19.5" customHeight="1">
+    <row r="77" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2563,7 +2610,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="19.5" customHeight="1">
+    <row r="78" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2579,7 +2626,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="19.5" customHeight="1">
+    <row r="79" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2595,7 +2642,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="19.5" customHeight="1">
+    <row r="80" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2611,7 +2658,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="19.5" customHeight="1">
+    <row r="81" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2627,7 +2674,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="19.5" customHeight="1">
+    <row r="82" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2643,7 +2690,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="19.5" customHeight="1">
+    <row r="83" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2659,7 +2706,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="19.5" customHeight="1">
+    <row r="84" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2675,7 +2722,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="19.5" customHeight="1">
+    <row r="85" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2691,7 +2738,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="19.5" customHeight="1">
+    <row r="86" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2707,7 +2754,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="19.5" customHeight="1">
+    <row r="87" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2723,7 +2770,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="19.5" customHeight="1">
+    <row r="88" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2739,7 +2786,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="19.5" customHeight="1">
+    <row r="89" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2755,7 +2802,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="19.5" customHeight="1">
+    <row r="90" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2771,7 +2818,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="19.5" customHeight="1">
+    <row r="91" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2787,7 +2834,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="19.5" customHeight="1">
+    <row r="92" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2803,7 +2850,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="19.5" customHeight="1">
+    <row r="93" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2819,7 +2866,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="19.5" customHeight="1">
+    <row r="94" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2835,7 +2882,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="19.5" customHeight="1">
+    <row r="95" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2851,7 +2898,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="19.5" customHeight="1">
+    <row r="96" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2867,7 +2914,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="19.5" customHeight="1">
+    <row r="97" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2883,7 +2930,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="19.5" customHeight="1">
+    <row r="98" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2899,7 +2946,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="19.5" customHeight="1">
+    <row r="99" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2915,7 +2962,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="19.5" customHeight="1">
+    <row r="100" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2931,7 +2978,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="19.5" customHeight="1">
+    <row r="101" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2947,7 +2994,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="19.5" customHeight="1">
+    <row r="102" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2963,7 +3010,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="19.5" customHeight="1">
+    <row r="103" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2979,7 +3026,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="19.5" customHeight="1">
+    <row r="104" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2995,7 +3042,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="19.5" customHeight="1">
+    <row r="105" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3011,7 +3058,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="19.5" customHeight="1">
+    <row r="106" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3027,7 +3074,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="19.5" customHeight="1">
+    <row r="107" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3043,7 +3090,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="19.5" customHeight="1">
+    <row r="108" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3059,7 +3106,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="19.5" customHeight="1">
+    <row r="109" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3075,7 +3122,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="19.5" customHeight="1">
+    <row r="110" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3091,7 +3138,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="19.5" customHeight="1">
+    <row r="111" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3107,7 +3154,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="19.5" customHeight="1">
+    <row r="112" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3123,7 +3170,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" ht="19.5" customHeight="1">
+    <row r="113" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3139,7 +3186,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="19.5" customHeight="1">
+    <row r="114" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3155,7 +3202,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="19.5" customHeight="1">
+    <row r="115" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3171,7 +3218,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="19.5" customHeight="1">
+    <row r="116" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3187,7 +3234,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="19.5" customHeight="1">
+    <row r="117" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3203,7 +3250,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="19.5" customHeight="1">
+    <row r="118" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3219,7 +3266,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="19.5" customHeight="1">
+    <row r="119" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3235,7 +3282,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="19.5" customHeight="1">
+    <row r="120" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3251,7 +3298,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="19.5" customHeight="1">
+    <row r="121" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3267,7 +3314,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="19.5" customHeight="1">
+    <row r="122" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3283,7 +3330,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="19.5" customHeight="1">
+    <row r="123" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3299,7 +3346,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" ht="19.5" customHeight="1">
+    <row r="124" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3315,7 +3362,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" ht="19.5" customHeight="1">
+    <row r="125" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3331,7 +3378,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="19.5" customHeight="1">
+    <row r="126" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3347,7 +3394,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="19.5" customHeight="1">
+    <row r="127" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3363,7 +3410,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="19.5" customHeight="1">
+    <row r="128" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3379,7 +3426,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" ht="19.5" customHeight="1">
+    <row r="129" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3395,7 +3442,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" ht="19.5" customHeight="1">
+    <row r="130" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3411,7 +3458,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="19.5" customHeight="1">
+    <row r="131" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3427,7 +3474,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="19.5" customHeight="1">
+    <row r="132" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3443,7 +3490,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" ht="19.5" customHeight="1">
+    <row r="133" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3459,7 +3506,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" ht="19.5" customHeight="1">
+    <row r="134" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3475,7 +3522,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="19.5" customHeight="1">
+    <row r="135" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3491,7 +3538,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="19.5" customHeight="1">
+    <row r="136" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3507,7 +3554,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" ht="19.5" customHeight="1">
+    <row r="137" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3523,7 +3570,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" ht="19.5" customHeight="1">
+    <row r="138" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3539,7 +3586,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" ht="19.5" customHeight="1">
+    <row r="139" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3555,7 +3602,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" ht="19.5" customHeight="1">
+    <row r="140" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3571,7 +3618,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" ht="19.5" customHeight="1">
+    <row r="141" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3587,7 +3634,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" ht="19.5" customHeight="1">
+    <row r="142" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3603,7 +3650,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" ht="19.5" customHeight="1">
+    <row r="143" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3619,7 +3666,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" ht="19.5" customHeight="1">
+    <row r="144" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3635,7 +3682,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" ht="19.5" customHeight="1">
+    <row r="145" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3651,7 +3698,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" ht="19.5" customHeight="1">
+    <row r="146" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3667,7 +3714,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" ht="19.5" customHeight="1">
+    <row r="147" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3683,7 +3730,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" ht="19.5" customHeight="1">
+    <row r="148" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3699,7 +3746,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="1:14" ht="19.5" customHeight="1">
+    <row r="149" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3715,7 +3762,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" ht="19.5" customHeight="1">
+    <row r="150" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3731,7 +3778,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" ht="19.5" customHeight="1">
+    <row r="151" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3747,7 +3794,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="19.5" customHeight="1">
+    <row r="152" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3763,7 +3810,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" ht="19.5" customHeight="1">
+    <row r="153" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3779,7 +3826,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" ht="19.5" customHeight="1">
+    <row r="154" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3795,7 +3842,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" ht="19.5" customHeight="1">
+    <row r="155" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3811,7 +3858,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" ht="19.5" customHeight="1">
+    <row r="156" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3827,7 +3874,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="19.5" customHeight="1">
+    <row r="157" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3843,7 +3890,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="19.5" customHeight="1">
+    <row r="158" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3859,7 +3906,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="19.5" customHeight="1">
+    <row r="159" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3875,7 +3922,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="19.5" customHeight="1">
+    <row r="160" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3891,7 +3938,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" ht="19.5" customHeight="1">
+    <row r="161" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3907,7 +3954,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" ht="19.5" customHeight="1">
+    <row r="162" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3923,7 +3970,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" ht="19.5" customHeight="1">
+    <row r="163" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3939,7 +3986,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" ht="19.5" customHeight="1">
+    <row r="164" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3955,7 +4002,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" ht="19.5" customHeight="1">
+    <row r="165" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3971,7 +4018,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" ht="19.5" customHeight="1">
+    <row r="166" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3987,7 +4034,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" ht="19.5" customHeight="1">
+    <row r="167" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4003,7 +4050,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" ht="19.5" customHeight="1">
+    <row r="168" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4019,7 +4066,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" ht="19.5" customHeight="1">
+    <row r="169" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4035,7 +4082,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" ht="19.5" customHeight="1">
+    <row r="170" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4051,7 +4098,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" ht="19.5" customHeight="1">
+    <row r="171" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4067,7 +4114,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" ht="19.5" customHeight="1">
+    <row r="172" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4083,7 +4130,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" ht="19.5" customHeight="1">
+    <row r="173" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4099,7 +4146,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" ht="19.5" customHeight="1">
+    <row r="174" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4115,7 +4162,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" ht="19.5" customHeight="1">
+    <row r="175" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4131,7 +4178,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" ht="19.5" customHeight="1">
+    <row r="176" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4147,7 +4194,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" ht="19.5" customHeight="1">
+    <row r="177" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4163,7 +4210,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" ht="19.5" customHeight="1">
+    <row r="178" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4179,7 +4226,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" ht="19.5" customHeight="1">
+    <row r="179" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4195,7 +4242,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" ht="19.5" customHeight="1">
+    <row r="180" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4211,7 +4258,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" ht="19.5" customHeight="1">
+    <row r="181" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4227,7 +4274,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" ht="19.5" customHeight="1">
+    <row r="182" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4243,7 +4290,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" ht="19.5" customHeight="1">
+    <row r="183" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4259,7 +4306,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="1:14" ht="19.5" customHeight="1">
+    <row r="184" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4275,7 +4322,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" ht="19.5" customHeight="1">
+    <row r="185" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4291,7 +4338,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" ht="19.5" customHeight="1">
+    <row r="186" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4307,7 +4354,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" ht="19.5" customHeight="1">
+    <row r="187" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4323,7 +4370,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" ht="19.5" customHeight="1">
+    <row r="188" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4339,7 +4386,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" ht="19.5" customHeight="1">
+    <row r="189" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4355,7 +4402,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" ht="19.5" customHeight="1">
+    <row r="190" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4371,7 +4418,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="19.5" customHeight="1">
+    <row r="191" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4387,7 +4434,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" ht="19.5" customHeight="1">
+    <row r="192" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4403,7 +4450,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" ht="19.5" customHeight="1">
+    <row r="193" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4419,7 +4466,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" ht="19.5" customHeight="1">
+    <row r="194" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -4435,7 +4482,7 @@
       <c r="M194" s="19"/>
       <c r="N194" s="19"/>
     </row>
-    <row r="195" spans="1:14" ht="19.5" customHeight="1">
+    <row r="195" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4451,7 +4498,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" ht="19.5" customHeight="1">
+    <row r="196" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4467,7 +4514,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="1:14" ht="19.5" customHeight="1">
+    <row r="197" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4483,7 +4530,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" ht="19.5" customHeight="1">
+    <row r="198" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4499,7 +4546,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" ht="19.5" customHeight="1">
+    <row r="199" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4515,7 +4562,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" ht="19.5" customHeight="1">
+    <row r="200" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4531,7 +4578,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" ht="19.5" customHeight="1">
+    <row r="201" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4547,7 +4594,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" ht="19.5" customHeight="1">
+    <row r="202" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4563,7 +4610,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" ht="19.5" customHeight="1">
+    <row r="203" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4579,7 +4626,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="1:14" ht="19.5" customHeight="1">
+    <row r="204" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="1"/>
@@ -4595,7 +4642,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" ht="19.5" customHeight="1">
+    <row r="205" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
       <c r="C205" s="1"/>
@@ -4611,7 +4658,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" ht="19.5" customHeight="1">
+    <row r="206" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4627,7 +4674,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="1:14" ht="19.5" customHeight="1">
+    <row r="207" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4643,7 +4690,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="1:14" ht="19.5" customHeight="1">
+    <row r="208" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4659,7 +4706,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="1:14" ht="19.5" customHeight="1">
+    <row r="209" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4675,7 +4722,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="1:14" ht="19.5" customHeight="1">
+    <row r="210" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4691,7 +4738,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="1:14" ht="19.5" customHeight="1">
+    <row r="211" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4707,7 +4754,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="1:14" ht="19.5" customHeight="1">
+    <row r="212" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4723,7 +4770,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="1:14" ht="19.5" customHeight="1">
+    <row r="213" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4739,7 +4786,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="1:14" ht="19.5" customHeight="1">
+    <row r="214" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4755,7 +4802,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="1:14" ht="19.5" customHeight="1">
+    <row r="215" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4771,7 +4818,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="1:14" ht="19.5" customHeight="1">
+    <row r="216" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4787,7 +4834,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="1:14" ht="19.5" customHeight="1">
+    <row r="217" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4803,7 +4850,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="1:14" ht="19.5" customHeight="1">
+    <row r="218" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4819,7 +4866,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" ht="19.5" customHeight="1">
+    <row r="219" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4835,7 +4882,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="1:14" ht="19.5" customHeight="1">
+    <row r="220" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4851,7 +4898,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="1:14" ht="19.5" customHeight="1">
+    <row r="221" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4867,7 +4914,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="1:14" ht="19.5" customHeight="1">
+    <row r="222" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4883,7 +4930,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="1:14" ht="19.5" customHeight="1">
+    <row r="223" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4899,7 +4946,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="1:14" ht="19.5" customHeight="1">
+    <row r="224" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4915,7 +4962,7 @@
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="1:14" ht="19.5" customHeight="1">
+    <row r="225" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4931,7 +4978,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="1:14" ht="19.5" customHeight="1">
+    <row r="226" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4947,7 +4994,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="1:14" ht="19.5" customHeight="1">
+    <row r="227" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4963,7 +5010,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="1:14" ht="19.5" customHeight="1">
+    <row r="228" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4979,7 +5026,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="1:14" ht="19.5" customHeight="1">
+    <row r="229" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4995,7 +5042,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="1:14" ht="19.5" customHeight="1">
+    <row r="230" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5011,7 +5058,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="1:14" ht="19.5" customHeight="1">
+    <row r="231" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5027,7 +5074,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="1:14" ht="19.5" customHeight="1">
+    <row r="232" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5043,7 +5090,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="1:14" ht="19.5" customHeight="1">
+    <row r="233" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5059,7 +5106,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="1:14" ht="19.5" customHeight="1">
+    <row r="234" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5075,7 +5122,7 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="1:14" ht="19.5" customHeight="1">
+    <row r="235" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5091,7 +5138,7 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="1:14" ht="19.5" customHeight="1">
+    <row r="236" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5107,7 +5154,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="1:14" ht="19.5" customHeight="1">
+    <row r="237" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5123,7 +5170,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="1:14" ht="19.5" customHeight="1">
+    <row r="238" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5139,7 +5186,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="1:14" ht="19.5" customHeight="1">
+    <row r="239" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5155,7 +5202,7 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="1:14" ht="19.5" customHeight="1">
+    <row r="240" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5171,7 +5218,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="1:14" ht="19.5" customHeight="1">
+    <row r="241" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5187,7 +5234,7 @@
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="1:14" ht="19.5" customHeight="1">
+    <row r="242" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5203,7 +5250,7 @@
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="1:14" ht="19.5" customHeight="1">
+    <row r="243" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5219,7 +5266,7 @@
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="1:14" ht="19.5" customHeight="1">
+    <row r="244" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5235,7 +5282,7 @@
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="1:14" ht="19.5" customHeight="1">
+    <row r="245" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5251,7 +5298,7 @@
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="1:14" ht="19.5" customHeight="1">
+    <row r="246" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5267,7 +5314,7 @@
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="1:14" ht="19.5" customHeight="1">
+    <row r="247" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5283,7 +5330,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="1:14" ht="19.5" customHeight="1">
+    <row r="248" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -5299,7 +5346,7 @@
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="1:14" ht="19.5" customHeight="1">
+    <row r="249" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -5315,7 +5362,7 @@
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="1:14" ht="19.5" customHeight="1">
+    <row r="250" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -5331,7 +5378,7 @@
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="1:14" ht="19.5" customHeight="1">
+    <row r="251" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -5347,7 +5394,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="1:14" ht="19.5" customHeight="1">
+    <row r="252" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -5363,7 +5410,7 @@
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="1:14" ht="19.5" customHeight="1">
+    <row r="253" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -5379,7 +5426,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="1:14" ht="19.5" customHeight="1">
+    <row r="254" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5395,7 +5442,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="1:14" ht="19.5" customHeight="1">
+    <row r="255" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -5411,7 +5458,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="1:14" ht="19.5" customHeight="1">
+    <row r="256" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5427,7 +5474,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="1:14" ht="19.5" customHeight="1">
+    <row r="257" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -5443,7 +5490,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="1:14" ht="19.5" customHeight="1">
+    <row r="258" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -5459,7 +5506,7 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
     </row>
-    <row r="259" spans="1:14" ht="19.5" customHeight="1">
+    <row r="259" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -5475,7 +5522,7 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="1:14" ht="19.5" customHeight="1">
+    <row r="260" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -5491,7 +5538,7 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
     </row>
-    <row r="261" spans="1:14" ht="19.5" customHeight="1">
+    <row r="261" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -5507,7 +5554,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
     </row>
-    <row r="262" spans="1:14" ht="19.5" customHeight="1">
+    <row r="262" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -5523,7 +5570,7 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
     </row>
-    <row r="263" spans="1:14" ht="19.5" customHeight="1">
+    <row r="263" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5539,7 +5586,7 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
     </row>
-    <row r="264" spans="1:14" ht="19.5" customHeight="1">
+    <row r="264" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -5555,7 +5602,7 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
     </row>
-    <row r="265" spans="1:14" ht="19.5" customHeight="1">
+    <row r="265" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -5571,7 +5618,7 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
     </row>
-    <row r="266" spans="1:14" ht="19.5" customHeight="1">
+    <row r="266" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -5587,7 +5634,7 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
     </row>
-    <row r="267" spans="1:14" ht="19.5" customHeight="1">
+    <row r="267" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -5603,7 +5650,7 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
     </row>
-    <row r="268" spans="1:14" ht="19.5" customHeight="1">
+    <row r="268" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -5619,7 +5666,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
     </row>
-    <row r="269" spans="1:14" ht="19.5" customHeight="1">
+    <row r="269" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -5635,7 +5682,7 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
     </row>
-    <row r="270" spans="1:14" ht="19.5" customHeight="1">
+    <row r="270" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -5651,7 +5698,7 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
     </row>
-    <row r="271" spans="1:14" ht="19.5" customHeight="1">
+    <row r="271" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -5667,7 +5714,7 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
     </row>
-    <row r="272" spans="1:14" ht="19.5" customHeight="1">
+    <row r="272" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -5683,7 +5730,7 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
     </row>
-    <row r="273" spans="1:14" ht="19.5" customHeight="1">
+    <row r="273" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -5699,7 +5746,7 @@
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
     </row>
-    <row r="274" spans="1:14" ht="19.5" customHeight="1">
+    <row r="274" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -5715,7 +5762,7 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
     </row>
-    <row r="275" spans="1:14" ht="19.5" customHeight="1">
+    <row r="275" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -5731,7 +5778,7 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
     </row>
-    <row r="276" spans="1:14" ht="19.5" customHeight="1">
+    <row r="276" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -5747,7 +5794,7 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
     </row>
-    <row r="277" spans="1:14" ht="19.5" customHeight="1">
+    <row r="277" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -5763,7 +5810,7 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
     </row>
-    <row r="278" spans="1:14" ht="19.5" customHeight="1">
+    <row r="278" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -5779,7 +5826,7 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
     </row>
-    <row r="279" spans="1:14" ht="19.5" customHeight="1">
+    <row r="279" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -5795,7 +5842,7 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
     </row>
-    <row r="280" spans="1:14" ht="19.5" customHeight="1">
+    <row r="280" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -5811,7 +5858,7 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
     </row>
-    <row r="281" spans="1:14" ht="19.5" customHeight="1">
+    <row r="281" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5827,7 +5874,7 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" spans="1:14" ht="19.5" customHeight="1">
+    <row r="282" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -5843,7 +5890,7 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
     </row>
-    <row r="283" spans="1:14" ht="19.5" customHeight="1">
+    <row r="283" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -5859,7 +5906,7 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" spans="1:14" ht="19.5" customHeight="1">
+    <row r="284" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -5875,7 +5922,7 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
     </row>
-    <row r="285" spans="1:14" ht="19.5" customHeight="1">
+    <row r="285" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5891,7 +5938,7 @@
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
     </row>
-    <row r="286" spans="1:14" ht="19.5" customHeight="1">
+    <row r="286" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5907,7 +5954,7 @@
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
     </row>
-    <row r="287" spans="1:14" ht="19.5" customHeight="1">
+    <row r="287" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5923,7 +5970,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
     </row>
-    <row r="288" spans="1:14" ht="19.5" customHeight="1">
+    <row r="288" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5939,7 +5986,7 @@
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
     </row>
-    <row r="289" spans="1:26" ht="19.5" customHeight="1">
+    <row r="289" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5955,7 +6002,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
     </row>
-    <row r="290" spans="1:26" ht="19.5" customHeight="1">
+    <row r="290" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5971,7 +6018,7 @@
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
     </row>
-    <row r="291" spans="1:26" ht="19.5" customHeight="1">
+    <row r="291" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5987,7 +6034,7 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
     </row>
-    <row r="292" spans="1:26" ht="19.5" customHeight="1">
+    <row r="292" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -6003,7 +6050,7 @@
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
     </row>
-    <row r="293" spans="1:26" ht="19.5" customHeight="1">
+    <row r="293" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -6019,7 +6066,7 @@
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
     </row>
-    <row r="294" spans="1:26" ht="19.5" customHeight="1">
+    <row r="294" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -6035,7 +6082,7 @@
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
     </row>
-    <row r="295" spans="1:26" ht="19.5" customHeight="1">
+    <row r="295" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -6051,7 +6098,7 @@
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
     </row>
-    <row r="296" spans="1:26" ht="19.5" customHeight="1">
+    <row r="296" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -6067,7 +6114,7 @@
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
     </row>
-    <row r="297" spans="1:26" ht="19.5" customHeight="1">
+    <row r="297" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -6083,7 +6130,7 @@
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
     </row>
-    <row r="298" spans="1:26" ht="19.5" customHeight="1">
+    <row r="298" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -6099,7 +6146,7 @@
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
     </row>
-    <row r="299" spans="1:26" ht="19.5" customHeight="1">
+    <row r="299" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6115,7 +6162,7 @@
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
     </row>
-    <row r="300" spans="1:26" ht="19.5" customHeight="1">
+    <row r="300" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -6131,7 +6178,7 @@
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
     </row>
-    <row r="301" spans="1:26" ht="19.5" customHeight="1">
+    <row r="301" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="2"/>
@@ -6147,7 +6194,7 @@
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="19.5" customHeight="1">
+    <row r="302" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="6"/>
       <c r="C302" s="2"/>
@@ -6175,7 +6222,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26" ht="19.5" customHeight="1">
+    <row r="303" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="11"/>
       <c r="C303" s="2"/>
@@ -6203,7 +6250,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26" ht="19.5" customHeight="1">
+    <row r="304" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="11"/>
       <c r="C304" s="2"/>
@@ -6231,7 +6278,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26" ht="19.5" customHeight="1">
+    <row r="305" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="11"/>
       <c r="C305" s="2"/>
@@ -6259,7 +6306,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26" ht="19.5" customHeight="1">
+    <row r="306" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6287,7 +6334,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26" ht="19.5" customHeight="1">
+    <row r="307" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -6315,7 +6362,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26" ht="19.5" customHeight="1">
+    <row r="308" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -6343,7 +6390,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26" ht="19.5" customHeight="1">
+    <row r="309" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -6371,7 +6418,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26" ht="19.5" customHeight="1">
+    <row r="310" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -6399,7 +6446,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26" ht="19.5" customHeight="1">
+    <row r="311" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -6427,7 +6474,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26" ht="19.5" customHeight="1">
+    <row r="312" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -6455,7 +6502,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26" ht="19.5" customHeight="1">
+    <row r="313" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -6483,7 +6530,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26" ht="19.5" customHeight="1">
+    <row r="314" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -6511,7 +6558,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26" ht="19.5" customHeight="1">
+    <row r="315" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -6539,7 +6586,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26" ht="19.5" customHeight="1">
+    <row r="316" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -6567,7 +6614,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26" ht="19.5" customHeight="1">
+    <row r="317" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -6595,7 +6642,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26" ht="19.5" customHeight="1">
+    <row r="318" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -6623,7 +6670,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26" ht="19.5" customHeight="1">
+    <row r="319" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -6651,7 +6698,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26" ht="19.5" customHeight="1">
+    <row r="320" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -6679,7 +6726,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26" ht="19.5" customHeight="1">
+    <row r="321" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -6707,7 +6754,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26" ht="19.5" customHeight="1">
+    <row r="322" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -6735,7 +6782,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26" ht="19.5" customHeight="1">
+    <row r="323" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -6763,7 +6810,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26" ht="19.5" customHeight="1">
+    <row r="324" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -6791,7 +6838,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26" ht="19.5" customHeight="1">
+    <row r="325" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -6819,7 +6866,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26" ht="19.5" customHeight="1">
+    <row r="326" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -6847,7 +6894,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26" ht="19.5" customHeight="1">
+    <row r="327" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -6875,7 +6922,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26" ht="19.5" customHeight="1">
+    <row r="328" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -6903,7 +6950,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26" ht="19.5" customHeight="1">
+    <row r="329" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6931,7 +6978,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26" ht="19.5" customHeight="1">
+    <row r="330" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -6959,7 +7006,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26" ht="19.5" customHeight="1">
+    <row r="331" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -6987,7 +7034,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26" ht="19.5" customHeight="1">
+    <row r="332" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7015,7 +7062,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26" ht="19.5" customHeight="1">
+    <row r="333" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7043,7 +7090,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26" ht="19.5" customHeight="1">
+    <row r="334" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7071,7 +7118,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26" ht="19.5" customHeight="1">
+    <row r="335" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7099,7 +7146,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26" ht="19.5" customHeight="1">
+    <row r="336" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7127,7 +7174,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26" ht="19.5" customHeight="1">
+    <row r="337" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7155,7 +7202,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26" ht="19.5" customHeight="1">
+    <row r="338" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7183,7 +7230,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26" ht="19.5" customHeight="1">
+    <row r="339" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7211,7 +7258,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26" ht="19.5" customHeight="1">
+    <row r="340" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7239,7 +7286,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26" ht="19.5" customHeight="1">
+    <row r="341" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7267,7 +7314,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26" ht="19.5" customHeight="1">
+    <row r="342" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7295,7 +7342,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26" ht="19.5" customHeight="1">
+    <row r="343" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7323,7 +7370,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26" ht="19.5" customHeight="1">
+    <row r="344" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7351,7 +7398,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26" ht="19.5" customHeight="1">
+    <row r="345" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7379,7 +7426,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26" ht="19.5" customHeight="1">
+    <row r="346" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7407,7 +7454,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26" ht="19.5" customHeight="1">
+    <row r="347" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7435,7 +7482,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26" ht="19.5" customHeight="1">
+    <row r="348" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7463,7 +7510,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26" ht="19.5" customHeight="1">
+    <row r="349" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7491,7 +7538,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26" ht="19.5" customHeight="1">
+    <row r="350" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7519,7 +7566,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26" ht="19.5" customHeight="1">
+    <row r="351" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7547,7 +7594,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26" ht="19.5" customHeight="1">
+    <row r="352" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7575,7 +7622,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26" ht="19.5" customHeight="1">
+    <row r="353" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7603,7 +7650,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26" ht="19.5" customHeight="1">
+    <row r="354" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7631,7 +7678,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26" ht="19.5" customHeight="1">
+    <row r="355" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7659,7 +7706,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26" ht="19.5" customHeight="1">
+    <row r="356" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7687,7 +7734,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26" ht="19.5" customHeight="1">
+    <row r="357" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -7715,7 +7762,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26" ht="19.5" customHeight="1">
+    <row r="358" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -7743,7 +7790,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26" ht="19.5" customHeight="1">
+    <row r="359" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -7771,7 +7818,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26" ht="19.5" customHeight="1">
+    <row r="360" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -7799,7 +7846,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26" ht="19.5" customHeight="1">
+    <row r="361" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -7827,7 +7874,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26" ht="19.5" customHeight="1">
+    <row r="362" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7855,7 +7902,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26" ht="19.5" customHeight="1">
+    <row r="363" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -7883,7 +7930,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26" ht="19.5" customHeight="1">
+    <row r="364" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -7911,7 +7958,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26" ht="19.5" customHeight="1">
+    <row r="365" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -7939,7 +7986,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26" ht="19.5" customHeight="1">
+    <row r="366" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -7967,7 +8014,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26" ht="19.5" customHeight="1">
+    <row r="367" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -7995,7 +8042,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26" ht="19.5" customHeight="1">
+    <row r="368" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -8023,7 +8070,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26" ht="19.5" customHeight="1">
+    <row r="369" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -8051,7 +8098,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26" ht="19.5" customHeight="1">
+    <row r="370" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -8079,7 +8126,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26" ht="19.5" customHeight="1">
+    <row r="371" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -8107,7 +8154,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26" ht="19.5" customHeight="1">
+    <row r="372" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -8135,7 +8182,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26" ht="19.5" customHeight="1">
+    <row r="373" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -8163,7 +8210,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26" ht="19.5" customHeight="1">
+    <row r="374" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -8191,7 +8238,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26" ht="19.5" customHeight="1">
+    <row r="375" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -8219,7 +8266,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26" ht="19.5" customHeight="1">
+    <row r="376" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -8247,7 +8294,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26" ht="19.5" customHeight="1">
+    <row r="377" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -8275,7 +8322,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26" ht="19.5" customHeight="1">
+    <row r="378" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -8293,7 +8340,7 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
@@ -8305,7 +8352,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26" ht="19.5" customHeight="1">
+    <row r="379" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -8333,7 +8380,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26" ht="19.5" customHeight="1">
+    <row r="380" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -8361,7 +8408,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26" ht="19.5" customHeight="1">
+    <row r="381" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -8389,7 +8436,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26" ht="19.5" customHeight="1">
+    <row r="382" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -8417,7 +8464,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26" ht="19.5" customHeight="1">
+    <row r="383" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -8445,7 +8492,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26" ht="19.5" customHeight="1">
+    <row r="384" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -8473,7 +8520,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26" ht="19.5" customHeight="1">
+    <row r="385" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -8501,7 +8548,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26" ht="19.5" customHeight="1">
+    <row r="386" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -8529,7 +8576,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26" ht="19.5" customHeight="1">
+    <row r="387" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -8557,7 +8604,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26" ht="19.5" customHeight="1">
+    <row r="388" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -8585,7 +8632,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26" ht="19.5" customHeight="1">
+    <row r="389" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -8613,7 +8660,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26" ht="19.5" customHeight="1">
+    <row r="390" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -8641,7 +8688,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26" ht="19.5" customHeight="1">
+    <row r="391" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -8669,7 +8716,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26" ht="19.5" customHeight="1">
+    <row r="392" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -8697,7 +8744,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26" ht="19.5" customHeight="1">
+    <row r="393" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -8725,7 +8772,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26" ht="19.5" customHeight="1">
+    <row r="394" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -8753,7 +8800,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26" ht="19.5" customHeight="1">
+    <row r="395" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -8781,7 +8828,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26" ht="19.5" customHeight="1">
+    <row r="396" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -8809,7 +8856,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26" ht="19.5" customHeight="1">
+    <row r="397" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -8837,7 +8884,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26" ht="19.5" customHeight="1">
+    <row r="398" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -8865,7 +8912,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26" ht="19.5" customHeight="1">
+    <row r="399" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -8893,7 +8940,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26" ht="19.5" customHeight="1">
+    <row r="400" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -8921,7 +8968,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26" ht="19.5" customHeight="1">
+    <row r="401" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -8949,7 +8996,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26" ht="19.5" customHeight="1">
+    <row r="402" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8977,7 +9024,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26" ht="19.5" customHeight="1">
+    <row r="403" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -9005,7 +9052,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26" ht="19.5" customHeight="1">
+    <row r="404" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -9033,7 +9080,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26" ht="19.5" customHeight="1">
+    <row r="405" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -9061,7 +9108,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26" ht="19.5" customHeight="1">
+    <row r="406" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -9089,7 +9136,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26" ht="19.5" customHeight="1">
+    <row r="407" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -9117,7 +9164,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26" ht="19.5" customHeight="1">
+    <row r="408" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -9145,7 +9192,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26" ht="19.5" customHeight="1">
+    <row r="409" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -9173,7 +9220,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26" ht="19.5" customHeight="1">
+    <row r="410" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -9201,7 +9248,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26" ht="19.5" customHeight="1">
+    <row r="411" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -9229,7 +9276,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26" ht="19.5" customHeight="1">
+    <row r="412" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -9257,7 +9304,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26" ht="19.5" customHeight="1">
+    <row r="413" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -9285,7 +9332,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26" ht="19.5" customHeight="1">
+    <row r="414" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -9313,7 +9360,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26" ht="19.5" customHeight="1">
+    <row r="415" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -9341,7 +9388,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26" ht="19.5" customHeight="1">
+    <row r="416" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -9369,7 +9416,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26" ht="19.5" customHeight="1">
+    <row r="417" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -9397,7 +9444,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26" ht="19.5" customHeight="1">
+    <row r="418" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -9425,7 +9472,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26" ht="19.5" customHeight="1">
+    <row r="419" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -9453,7 +9500,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26" ht="19.5" customHeight="1">
+    <row r="420" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -9481,7 +9528,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26" ht="19.5" customHeight="1">
+    <row r="421" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -9509,7 +9556,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26" ht="19.5" customHeight="1">
+    <row r="422" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -9537,7 +9584,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26" ht="19.5" customHeight="1">
+    <row r="423" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -9565,7 +9612,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26" ht="19.5" customHeight="1">
+    <row r="424" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -9593,7 +9640,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26" ht="19.5" customHeight="1">
+    <row r="425" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -9621,7 +9668,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26" ht="19.5" customHeight="1">
+    <row r="426" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -9649,7 +9696,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26" ht="19.5" customHeight="1">
+    <row r="427" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -9677,7 +9724,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26" ht="19.5" customHeight="1">
+    <row r="428" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -9705,7 +9752,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26" ht="19.5" customHeight="1">
+    <row r="429" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -9733,7 +9780,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26" ht="19.5" customHeight="1">
+    <row r="430" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -9761,7 +9808,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26" ht="19.5" customHeight="1">
+    <row r="431" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -9789,7 +9836,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26" ht="19.5" customHeight="1">
+    <row r="432" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -9817,7 +9864,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26" ht="19.5" customHeight="1">
+    <row r="433" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -9845,7 +9892,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26" ht="19.5" customHeight="1">
+    <row r="434" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -9873,7 +9920,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26" ht="19.5" customHeight="1">
+    <row r="435" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -9901,7 +9948,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="19.5" customHeight="1">
+    <row r="436" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -9929,7 +9976,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26" ht="19.5" customHeight="1">
+    <row r="437" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -9957,7 +10004,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26" ht="19.5" customHeight="1">
+    <row r="438" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -9985,7 +10032,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26" ht="19.5" customHeight="1">
+    <row r="439" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -10013,7 +10060,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26" ht="19.5" customHeight="1">
+    <row r="440" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -10041,7 +10088,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26" ht="19.5" customHeight="1">
+    <row r="441" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -10069,7 +10116,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26" ht="19.5" customHeight="1">
+    <row r="442" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -10097,7 +10144,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26" ht="19.5" customHeight="1">
+    <row r="443" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -10125,7 +10172,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26" ht="19.5" customHeight="1">
+    <row r="444" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -10153,7 +10200,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26" ht="19.5" customHeight="1">
+    <row r="445" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -10181,7 +10228,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26" ht="19.5" customHeight="1">
+    <row r="446" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -10209,7 +10256,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26" ht="19.5" customHeight="1">
+    <row r="447" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -10237,7 +10284,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26" ht="19.5" customHeight="1">
+    <row r="448" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -10265,7 +10312,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26" ht="19.5" customHeight="1">
+    <row r="449" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -10293,7 +10340,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26" ht="19.5" customHeight="1">
+    <row r="450" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -10321,7 +10368,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26" ht="19.5" customHeight="1">
+    <row r="451" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -10349,7 +10396,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26" ht="19.5" customHeight="1">
+    <row r="452" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -10377,7 +10424,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26" ht="19.5" customHeight="1">
+    <row r="453" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -10405,7 +10452,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26" ht="19.5" customHeight="1">
+    <row r="454" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -10433,7 +10480,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26" ht="19.5" customHeight="1">
+    <row r="455" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -10461,7 +10508,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26" ht="19.5" customHeight="1">
+    <row r="456" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -10489,7 +10536,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26" ht="19.5" customHeight="1">
+    <row r="457" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -10517,7 +10564,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -10545,7 +10592,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -10573,7 +10620,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -10601,7 +10648,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -10629,7 +10676,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -10657,7 +10704,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -10685,7 +10732,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -10713,7 +10760,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -10741,7 +10788,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -10769,7 +10816,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -10797,7 +10844,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -10825,7 +10872,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -10853,7 +10900,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -10881,7 +10928,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -10909,7 +10956,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -10937,7 +10984,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -10965,7 +11012,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -10993,7 +11040,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -11021,7 +11068,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -11049,7 +11096,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -11077,7 +11124,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -11105,7 +11152,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -11133,7 +11180,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -11161,7 +11208,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -11189,7 +11236,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -11217,7 +11264,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -11245,7 +11292,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -11273,7 +11320,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -11301,7 +11348,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -11329,7 +11376,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -11357,7 +11404,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -11385,7 +11432,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -11413,7 +11460,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -11441,7 +11488,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -11469,7 +11516,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -11497,7 +11544,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -11525,7 +11572,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -11553,7 +11600,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -11581,7 +11628,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -11609,7 +11656,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -11637,7 +11684,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -11665,7 +11712,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -11693,7 +11740,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -11721,7 +11768,7 @@
       <c r="Y500" s="1"/>
       <c r="Z500" s="1"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -11749,7 +11796,7 @@
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -11777,7 +11824,7 @@
       <c r="Y502" s="1"/>
       <c r="Z502" s="1"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -11805,7 +11852,7 @@
       <c r="Y503" s="1"/>
       <c r="Z503" s="1"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -11833,7 +11880,7 @@
       <c r="Y504" s="1"/>
       <c r="Z504" s="1"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -11861,7 +11908,7 @@
       <c r="Y505" s="1"/>
       <c r="Z505" s="1"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -11889,7 +11936,7 @@
       <c r="Y506" s="1"/>
       <c r="Z506" s="1"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -11917,7 +11964,7 @@
       <c r="Y507" s="1"/>
       <c r="Z507" s="1"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -11945,7 +11992,7 @@
       <c r="Y508" s="1"/>
       <c r="Z508" s="1"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -11973,7 +12020,7 @@
       <c r="Y509" s="1"/>
       <c r="Z509" s="1"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -12001,7 +12048,7 @@
       <c r="Y510" s="1"/>
       <c r="Z510" s="1"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -12029,7 +12076,7 @@
       <c r="Y511" s="1"/>
       <c r="Z511" s="1"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -12057,7 +12104,7 @@
       <c r="Y512" s="1"/>
       <c r="Z512" s="1"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -12085,7 +12132,7 @@
       <c r="Y513" s="1"/>
       <c r="Z513" s="1"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -12113,7 +12160,7 @@
       <c r="Y514" s="1"/>
       <c r="Z514" s="1"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -12141,7 +12188,7 @@
       <c r="Y515" s="1"/>
       <c r="Z515" s="1"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -12169,7 +12216,7 @@
       <c r="Y516" s="1"/>
       <c r="Z516" s="1"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -12197,7 +12244,7 @@
       <c r="Y517" s="1"/>
       <c r="Z517" s="1"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -12225,7 +12272,7 @@
       <c r="Y518" s="1"/>
       <c r="Z518" s="1"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -12253,7 +12300,7 @@
       <c r="Y519" s="1"/>
       <c r="Z519" s="1"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -12281,7 +12328,7 @@
       <c r="Y520" s="1"/>
       <c r="Z520" s="1"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -12309,7 +12356,7 @@
       <c r="Y521" s="1"/>
       <c r="Z521" s="1"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -12337,7 +12384,7 @@
       <c r="Y522" s="1"/>
       <c r="Z522" s="1"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -12365,7 +12412,7 @@
       <c r="Y523" s="1"/>
       <c r="Z523" s="1"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -12393,7 +12440,7 @@
       <c r="Y524" s="1"/>
       <c r="Z524" s="1"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -12421,7 +12468,7 @@
       <c r="Y525" s="1"/>
       <c r="Z525" s="1"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -12449,7 +12496,7 @@
       <c r="Y526" s="1"/>
       <c r="Z526" s="1"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -12477,7 +12524,7 @@
       <c r="Y527" s="1"/>
       <c r="Z527" s="1"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -12505,7 +12552,7 @@
       <c r="Y528" s="1"/>
       <c r="Z528" s="1"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -12533,7 +12580,7 @@
       <c r="Y529" s="1"/>
       <c r="Z529" s="1"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -12561,7 +12608,7 @@
       <c r="Y530" s="1"/>
       <c r="Z530" s="1"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -12589,7 +12636,7 @@
       <c r="Y531" s="1"/>
       <c r="Z531" s="1"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -12617,7 +12664,7 @@
       <c r="Y532" s="1"/>
       <c r="Z532" s="1"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -12645,7 +12692,7 @@
       <c r="Y533" s="1"/>
       <c r="Z533" s="1"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -12673,7 +12720,7 @@
       <c r="Y534" s="1"/>
       <c r="Z534" s="1"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -12701,7 +12748,7 @@
       <c r="Y535" s="1"/>
       <c r="Z535" s="1"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -12729,7 +12776,7 @@
       <c r="Y536" s="1"/>
       <c r="Z536" s="1"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -12757,7 +12804,7 @@
       <c r="Y537" s="1"/>
       <c r="Z537" s="1"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -12785,7 +12832,7 @@
       <c r="Y538" s="1"/>
       <c r="Z538" s="1"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -12813,7 +12860,7 @@
       <c r="Y539" s="1"/>
       <c r="Z539" s="1"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -12841,7 +12888,7 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -12869,7 +12916,7 @@
       <c r="Y541" s="1"/>
       <c r="Z541" s="1"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -12897,7 +12944,7 @@
       <c r="Y542" s="1"/>
       <c r="Z542" s="1"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -12925,7 +12972,7 @@
       <c r="Y543" s="1"/>
       <c r="Z543" s="1"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -12953,7 +13000,7 @@
       <c r="Y544" s="1"/>
       <c r="Z544" s="1"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -12981,7 +13028,7 @@
       <c r="Y545" s="1"/>
       <c r="Z545" s="1"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -13009,7 +13056,7 @@
       <c r="Y546" s="1"/>
       <c r="Z546" s="1"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -13037,7 +13084,7 @@
       <c r="Y547" s="1"/>
       <c r="Z547" s="1"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -13065,7 +13112,7 @@
       <c r="Y548" s="1"/>
       <c r="Z548" s="1"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -13093,7 +13140,7 @@
       <c r="Y549" s="1"/>
       <c r="Z549" s="1"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -13121,7 +13168,7 @@
       <c r="Y550" s="1"/>
       <c r="Z550" s="1"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -13149,7 +13196,7 @@
       <c r="Y551" s="1"/>
       <c r="Z551" s="1"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -13177,7 +13224,7 @@
       <c r="Y552" s="1"/>
       <c r="Z552" s="1"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -13205,7 +13252,7 @@
       <c r="Y553" s="1"/>
       <c r="Z553" s="1"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -13233,7 +13280,7 @@
       <c r="Y554" s="1"/>
       <c r="Z554" s="1"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -13261,7 +13308,7 @@
       <c r="Y555" s="1"/>
       <c r="Z555" s="1"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -13289,7 +13336,7 @@
       <c r="Y556" s="1"/>
       <c r="Z556" s="1"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -13317,7 +13364,7 @@
       <c r="Y557" s="1"/>
       <c r="Z557" s="1"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -13345,7 +13392,7 @@
       <c r="Y558" s="1"/>
       <c r="Z558" s="1"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -13373,7 +13420,7 @@
       <c r="Y559" s="1"/>
       <c r="Z559" s="1"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -13401,7 +13448,7 @@
       <c r="Y560" s="1"/>
       <c r="Z560" s="1"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -13429,7 +13476,7 @@
       <c r="Y561" s="1"/>
       <c r="Z561" s="1"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -13457,7 +13504,7 @@
       <c r="Y562" s="1"/>
       <c r="Z562" s="1"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -13485,7 +13532,7 @@
       <c r="Y563" s="1"/>
       <c r="Z563" s="1"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -13513,7 +13560,7 @@
       <c r="Y564" s="1"/>
       <c r="Z564" s="1"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -13541,7 +13588,7 @@
       <c r="Y565" s="1"/>
       <c r="Z565" s="1"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -13569,7 +13616,7 @@
       <c r="Y566" s="1"/>
       <c r="Z566" s="1"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -13597,7 +13644,7 @@
       <c r="Y567" s="1"/>
       <c r="Z567" s="1"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -13625,7 +13672,7 @@
       <c r="Y568" s="1"/>
       <c r="Z568" s="1"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -13653,7 +13700,7 @@
       <c r="Y569" s="1"/>
       <c r="Z569" s="1"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -13681,7 +13728,7 @@
       <c r="Y570" s="1"/>
       <c r="Z570" s="1"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -13709,7 +13756,7 @@
       <c r="Y571" s="1"/>
       <c r="Z571" s="1"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -13737,7 +13784,7 @@
       <c r="Y572" s="1"/>
       <c r="Z572" s="1"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -13765,7 +13812,7 @@
       <c r="Y573" s="1"/>
       <c r="Z573" s="1"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -13793,7 +13840,7 @@
       <c r="Y574" s="1"/>
       <c r="Z574" s="1"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -13821,7 +13868,7 @@
       <c r="Y575" s="1"/>
       <c r="Z575" s="1"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -13849,7 +13896,7 @@
       <c r="Y576" s="1"/>
       <c r="Z576" s="1"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -13877,7 +13924,7 @@
       <c r="Y577" s="1"/>
       <c r="Z577" s="1"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -13905,7 +13952,7 @@
       <c r="Y578" s="1"/>
       <c r="Z578" s="1"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -13933,7 +13980,7 @@
       <c r="Y579" s="1"/>
       <c r="Z579" s="1"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -13961,7 +14008,7 @@
       <c r="Y580" s="1"/>
       <c r="Z580" s="1"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -13989,7 +14036,7 @@
       <c r="Y581" s="1"/>
       <c r="Z581" s="1"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -14017,7 +14064,7 @@
       <c r="Y582" s="1"/>
       <c r="Z582" s="1"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -14045,7 +14092,7 @@
       <c r="Y583" s="1"/>
       <c r="Z583" s="1"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -14073,7 +14120,7 @@
       <c r="Y584" s="1"/>
       <c r="Z584" s="1"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -14101,7 +14148,7 @@
       <c r="Y585" s="1"/>
       <c r="Z585" s="1"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -14129,7 +14176,7 @@
       <c r="Y586" s="1"/>
       <c r="Z586" s="1"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -14157,7 +14204,7 @@
       <c r="Y587" s="1"/>
       <c r="Z587" s="1"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -14185,7 +14232,7 @@
       <c r="Y588" s="1"/>
       <c r="Z588" s="1"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -14213,7 +14260,7 @@
       <c r="Y589" s="1"/>
       <c r="Z589" s="1"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -14241,7 +14288,7 @@
       <c r="Y590" s="1"/>
       <c r="Z590" s="1"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -14269,7 +14316,7 @@
       <c r="Y591" s="1"/>
       <c r="Z591" s="1"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -14297,7 +14344,7 @@
       <c r="Y592" s="1"/>
       <c r="Z592" s="1"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -14325,7 +14372,7 @@
       <c r="Y593" s="1"/>
       <c r="Z593" s="1"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -14353,7 +14400,7 @@
       <c r="Y594" s="1"/>
       <c r="Z594" s="1"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -14381,7 +14428,7 @@
       <c r="Y595" s="1"/>
       <c r="Z595" s="1"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -14409,7 +14456,7 @@
       <c r="Y596" s="1"/>
       <c r="Z596" s="1"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -14437,7 +14484,7 @@
       <c r="Y597" s="1"/>
       <c r="Z597" s="1"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -14465,7 +14512,7 @@
       <c r="Y598" s="1"/>
       <c r="Z598" s="1"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -14493,7 +14540,7 @@
       <c r="Y599" s="1"/>
       <c r="Z599" s="1"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -14521,7 +14568,7 @@
       <c r="Y600" s="1"/>
       <c r="Z600" s="1"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -14549,7 +14596,7 @@
       <c r="Y601" s="1"/>
       <c r="Z601" s="1"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -14577,7 +14624,7 @@
       <c r="Y602" s="1"/>
       <c r="Z602" s="1"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -14605,7 +14652,7 @@
       <c r="Y603" s="1"/>
       <c r="Z603" s="1"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -14633,7 +14680,7 @@
       <c r="Y604" s="1"/>
       <c r="Z604" s="1"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -14661,7 +14708,7 @@
       <c r="Y605" s="1"/>
       <c r="Z605" s="1"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -14689,7 +14736,7 @@
       <c r="Y606" s="1"/>
       <c r="Z606" s="1"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -14717,7 +14764,7 @@
       <c r="Y607" s="1"/>
       <c r="Z607" s="1"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -14745,7 +14792,7 @@
       <c r="Y608" s="1"/>
       <c r="Z608" s="1"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -14773,7 +14820,7 @@
       <c r="Y609" s="1"/>
       <c r="Z609" s="1"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -14801,7 +14848,7 @@
       <c r="Y610" s="1"/>
       <c r="Z610" s="1"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -14829,7 +14876,7 @@
       <c r="Y611" s="1"/>
       <c r="Z611" s="1"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -14857,7 +14904,7 @@
       <c r="Y612" s="1"/>
       <c r="Z612" s="1"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -14885,7 +14932,7 @@
       <c r="Y613" s="1"/>
       <c r="Z613" s="1"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -14913,7 +14960,7 @@
       <c r="Y614" s="1"/>
       <c r="Z614" s="1"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -14941,7 +14988,7 @@
       <c r="Y615" s="1"/>
       <c r="Z615" s="1"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -14969,7 +15016,7 @@
       <c r="Y616" s="1"/>
       <c r="Z616" s="1"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -14997,7 +15044,7 @@
       <c r="Y617" s="1"/>
       <c r="Z617" s="1"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -15025,7 +15072,7 @@
       <c r="Y618" s="1"/>
       <c r="Z618" s="1"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -15053,7 +15100,7 @@
       <c r="Y619" s="1"/>
       <c r="Z619" s="1"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -15081,7 +15128,7 @@
       <c r="Y620" s="1"/>
       <c r="Z620" s="1"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -15109,7 +15156,7 @@
       <c r="Y621" s="1"/>
       <c r="Z621" s="1"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -15137,7 +15184,7 @@
       <c r="Y622" s="1"/>
       <c r="Z622" s="1"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -15165,7 +15212,7 @@
       <c r="Y623" s="1"/>
       <c r="Z623" s="1"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -15193,7 +15240,7 @@
       <c r="Y624" s="1"/>
       <c r="Z624" s="1"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -15221,7 +15268,7 @@
       <c r="Y625" s="1"/>
       <c r="Z625" s="1"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -15249,7 +15296,7 @@
       <c r="Y626" s="1"/>
       <c r="Z626" s="1"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -15277,7 +15324,7 @@
       <c r="Y627" s="1"/>
       <c r="Z627" s="1"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -15305,7 +15352,7 @@
       <c r="Y628" s="1"/>
       <c r="Z628" s="1"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -15333,7 +15380,7 @@
       <c r="Y629" s="1"/>
       <c r="Z629" s="1"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -15361,7 +15408,7 @@
       <c r="Y630" s="1"/>
       <c r="Z630" s="1"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -15389,7 +15436,7 @@
       <c r="Y631" s="1"/>
       <c r="Z631" s="1"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -15417,7 +15464,7 @@
       <c r="Y632" s="1"/>
       <c r="Z632" s="1"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -15445,7 +15492,7 @@
       <c r="Y633" s="1"/>
       <c r="Z633" s="1"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -15473,7 +15520,7 @@
       <c r="Y634" s="1"/>
       <c r="Z634" s="1"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -15501,7 +15548,7 @@
       <c r="Y635" s="1"/>
       <c r="Z635" s="1"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -15529,7 +15576,7 @@
       <c r="Y636" s="1"/>
       <c r="Z636" s="1"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -15557,7 +15604,7 @@
       <c r="Y637" s="1"/>
       <c r="Z637" s="1"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -15585,7 +15632,7 @@
       <c r="Y638" s="1"/>
       <c r="Z638" s="1"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -15613,7 +15660,7 @@
       <c r="Y639" s="1"/>
       <c r="Z639" s="1"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -15641,7 +15688,7 @@
       <c r="Y640" s="1"/>
       <c r="Z640" s="1"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -15669,7 +15716,7 @@
       <c r="Y641" s="1"/>
       <c r="Z641" s="1"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -15697,7 +15744,7 @@
       <c r="Y642" s="1"/>
       <c r="Z642" s="1"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -15725,7 +15772,7 @@
       <c r="Y643" s="1"/>
       <c r="Z643" s="1"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -15753,7 +15800,7 @@
       <c r="Y644" s="1"/>
       <c r="Z644" s="1"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -15781,7 +15828,7 @@
       <c r="Y645" s="1"/>
       <c r="Z645" s="1"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -15809,7 +15856,7 @@
       <c r="Y646" s="1"/>
       <c r="Z646" s="1"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -15837,7 +15884,7 @@
       <c r="Y647" s="1"/>
       <c r="Z647" s="1"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -15865,7 +15912,7 @@
       <c r="Y648" s="1"/>
       <c r="Z648" s="1"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -15893,7 +15940,7 @@
       <c r="Y649" s="1"/>
       <c r="Z649" s="1"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -15921,7 +15968,7 @@
       <c r="Y650" s="1"/>
       <c r="Z650" s="1"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -15949,7 +15996,7 @@
       <c r="Y651" s="1"/>
       <c r="Z651" s="1"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -15977,7 +16024,7 @@
       <c r="Y652" s="1"/>
       <c r="Z652" s="1"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -16005,7 +16052,7 @@
       <c r="Y653" s="1"/>
       <c r="Z653" s="1"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -16033,7 +16080,7 @@
       <c r="Y654" s="1"/>
       <c r="Z654" s="1"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -16061,7 +16108,7 @@
       <c r="Y655" s="1"/>
       <c r="Z655" s="1"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -16089,7 +16136,7 @@
       <c r="Y656" s="1"/>
       <c r="Z656" s="1"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -16117,7 +16164,7 @@
       <c r="Y657" s="1"/>
       <c r="Z657" s="1"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -16145,7 +16192,7 @@
       <c r="Y658" s="1"/>
       <c r="Z658" s="1"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -16173,7 +16220,7 @@
       <c r="Y659" s="1"/>
       <c r="Z659" s="1"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -16201,7 +16248,7 @@
       <c r="Y660" s="1"/>
       <c r="Z660" s="1"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -16229,7 +16276,7 @@
       <c r="Y661" s="1"/>
       <c r="Z661" s="1"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -16257,7 +16304,7 @@
       <c r="Y662" s="1"/>
       <c r="Z662" s="1"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -16285,7 +16332,7 @@
       <c r="Y663" s="1"/>
       <c r="Z663" s="1"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -16313,7 +16360,7 @@
       <c r="Y664" s="1"/>
       <c r="Z664" s="1"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -16341,7 +16388,7 @@
       <c r="Y665" s="1"/>
       <c r="Z665" s="1"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -16369,7 +16416,7 @@
       <c r="Y666" s="1"/>
       <c r="Z666" s="1"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -16397,7 +16444,7 @@
       <c r="Y667" s="1"/>
       <c r="Z667" s="1"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -16425,7 +16472,7 @@
       <c r="Y668" s="1"/>
       <c r="Z668" s="1"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -16453,7 +16500,7 @@
       <c r="Y669" s="1"/>
       <c r="Z669" s="1"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -16481,7 +16528,7 @@
       <c r="Y670" s="1"/>
       <c r="Z670" s="1"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -16509,7 +16556,7 @@
       <c r="Y671" s="1"/>
       <c r="Z671" s="1"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -16537,7 +16584,7 @@
       <c r="Y672" s="1"/>
       <c r="Z672" s="1"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -16565,7 +16612,7 @@
       <c r="Y673" s="1"/>
       <c r="Z673" s="1"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -16593,7 +16640,7 @@
       <c r="Y674" s="1"/>
       <c r="Z674" s="1"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -16621,7 +16668,7 @@
       <c r="Y675" s="1"/>
       <c r="Z675" s="1"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -16649,7 +16696,7 @@
       <c r="Y676" s="1"/>
       <c r="Z676" s="1"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -16677,7 +16724,7 @@
       <c r="Y677" s="1"/>
       <c r="Z677" s="1"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -16705,7 +16752,7 @@
       <c r="Y678" s="1"/>
       <c r="Z678" s="1"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -16733,7 +16780,7 @@
       <c r="Y679" s="1"/>
       <c r="Z679" s="1"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -16761,7 +16808,7 @@
       <c r="Y680" s="1"/>
       <c r="Z680" s="1"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -16789,7 +16836,7 @@
       <c r="Y681" s="1"/>
       <c r="Z681" s="1"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -16817,7 +16864,7 @@
       <c r="Y682" s="1"/>
       <c r="Z682" s="1"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -16845,7 +16892,7 @@
       <c r="Y683" s="1"/>
       <c r="Z683" s="1"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -16873,7 +16920,7 @@
       <c r="Y684" s="1"/>
       <c r="Z684" s="1"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -16901,7 +16948,7 @@
       <c r="Y685" s="1"/>
       <c r="Z685" s="1"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -16929,7 +16976,7 @@
       <c r="Y686" s="1"/>
       <c r="Z686" s="1"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -16957,7 +17004,7 @@
       <c r="Y687" s="1"/>
       <c r="Z687" s="1"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -16985,7 +17032,7 @@
       <c r="Y688" s="1"/>
       <c r="Z688" s="1"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -17013,7 +17060,7 @@
       <c r="Y689" s="1"/>
       <c r="Z689" s="1"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -17041,7 +17088,7 @@
       <c r="Y690" s="1"/>
       <c r="Z690" s="1"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -17069,7 +17116,7 @@
       <c r="Y691" s="1"/>
       <c r="Z691" s="1"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -17097,7 +17144,7 @@
       <c r="Y692" s="1"/>
       <c r="Z692" s="1"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -17125,7 +17172,7 @@
       <c r="Y693" s="1"/>
       <c r="Z693" s="1"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -17153,7 +17200,7 @@
       <c r="Y694" s="1"/>
       <c r="Z694" s="1"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -17181,7 +17228,7 @@
       <c r="Y695" s="1"/>
       <c r="Z695" s="1"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -17209,7 +17256,7 @@
       <c r="Y696" s="1"/>
       <c r="Z696" s="1"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -17237,7 +17284,7 @@
       <c r="Y697" s="1"/>
       <c r="Z697" s="1"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -17265,7 +17312,7 @@
       <c r="Y698" s="1"/>
       <c r="Z698" s="1"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -17293,7 +17340,7 @@
       <c r="Y699" s="1"/>
       <c r="Z699" s="1"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -17321,7 +17368,7 @@
       <c r="Y700" s="1"/>
       <c r="Z700" s="1"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -17349,7 +17396,7 @@
       <c r="Y701" s="1"/>
       <c r="Z701" s="1"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -17377,7 +17424,7 @@
       <c r="Y702" s="1"/>
       <c r="Z702" s="1"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -17405,7 +17452,7 @@
       <c r="Y703" s="1"/>
       <c r="Z703" s="1"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -17433,7 +17480,7 @@
       <c r="Y704" s="1"/>
       <c r="Z704" s="1"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -17461,7 +17508,7 @@
       <c r="Y705" s="1"/>
       <c r="Z705" s="1"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -17489,7 +17536,7 @@
       <c r="Y706" s="1"/>
       <c r="Z706" s="1"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -17517,7 +17564,7 @@
       <c r="Y707" s="1"/>
       <c r="Z707" s="1"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -17545,7 +17592,7 @@
       <c r="Y708" s="1"/>
       <c r="Z708" s="1"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -17573,7 +17620,7 @@
       <c r="Y709" s="1"/>
       <c r="Z709" s="1"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -17601,7 +17648,7 @@
       <c r="Y710" s="1"/>
       <c r="Z710" s="1"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -17629,7 +17676,7 @@
       <c r="Y711" s="1"/>
       <c r="Z711" s="1"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -17657,7 +17704,7 @@
       <c r="Y712" s="1"/>
       <c r="Z712" s="1"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -17685,7 +17732,7 @@
       <c r="Y713" s="1"/>
       <c r="Z713" s="1"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -17713,7 +17760,7 @@
       <c r="Y714" s="1"/>
       <c r="Z714" s="1"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -17741,7 +17788,7 @@
       <c r="Y715" s="1"/>
       <c r="Z715" s="1"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -17769,7 +17816,7 @@
       <c r="Y716" s="1"/>
       <c r="Z716" s="1"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -17797,7 +17844,7 @@
       <c r="Y717" s="1"/>
       <c r="Z717" s="1"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -17825,7 +17872,7 @@
       <c r="Y718" s="1"/>
       <c r="Z718" s="1"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -17853,7 +17900,7 @@
       <c r="Y719" s="1"/>
       <c r="Z719" s="1"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -17881,7 +17928,7 @@
       <c r="Y720" s="1"/>
       <c r="Z720" s="1"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -17909,7 +17956,7 @@
       <c r="Y721" s="1"/>
       <c r="Z721" s="1"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -17937,7 +17984,7 @@
       <c r="Y722" s="1"/>
       <c r="Z722" s="1"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -17965,7 +18012,7 @@
       <c r="Y723" s="1"/>
       <c r="Z723" s="1"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -17993,7 +18040,7 @@
       <c r="Y724" s="1"/>
       <c r="Z724" s="1"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -18021,7 +18068,7 @@
       <c r="Y725" s="1"/>
       <c r="Z725" s="1"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -18049,7 +18096,7 @@
       <c r="Y726" s="1"/>
       <c r="Z726" s="1"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -18077,7 +18124,7 @@
       <c r="Y727" s="1"/>
       <c r="Z727" s="1"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -18105,7 +18152,7 @@
       <c r="Y728" s="1"/>
       <c r="Z728" s="1"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -18133,7 +18180,7 @@
       <c r="Y729" s="1"/>
       <c r="Z729" s="1"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -18161,7 +18208,7 @@
       <c r="Y730" s="1"/>
       <c r="Z730" s="1"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -18189,7 +18236,7 @@
       <c r="Y731" s="1"/>
       <c r="Z731" s="1"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -18217,7 +18264,7 @@
       <c r="Y732" s="1"/>
       <c r="Z732" s="1"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -18245,7 +18292,7 @@
       <c r="Y733" s="1"/>
       <c r="Z733" s="1"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -18273,7 +18320,7 @@
       <c r="Y734" s="1"/>
       <c r="Z734" s="1"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -18301,7 +18348,7 @@
       <c r="Y735" s="1"/>
       <c r="Z735" s="1"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -18329,7 +18376,7 @@
       <c r="Y736" s="1"/>
       <c r="Z736" s="1"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -18357,7 +18404,7 @@
       <c r="Y737" s="1"/>
       <c r="Z737" s="1"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -18385,7 +18432,7 @@
       <c r="Y738" s="1"/>
       <c r="Z738" s="1"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -18413,7 +18460,7 @@
       <c r="Y739" s="1"/>
       <c r="Z739" s="1"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -18441,7 +18488,7 @@
       <c r="Y740" s="1"/>
       <c r="Z740" s="1"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -18469,7 +18516,7 @@
       <c r="Y741" s="1"/>
       <c r="Z741" s="1"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -18497,7 +18544,7 @@
       <c r="Y742" s="1"/>
       <c r="Z742" s="1"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -18525,7 +18572,7 @@
       <c r="Y743" s="1"/>
       <c r="Z743" s="1"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -18553,7 +18600,7 @@
       <c r="Y744" s="1"/>
       <c r="Z744" s="1"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -18581,7 +18628,7 @@
       <c r="Y745" s="1"/>
       <c r="Z745" s="1"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -18609,7 +18656,7 @@
       <c r="Y746" s="1"/>
       <c r="Z746" s="1"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -18637,7 +18684,7 @@
       <c r="Y747" s="1"/>
       <c r="Z747" s="1"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -18665,7 +18712,7 @@
       <c r="Y748" s="1"/>
       <c r="Z748" s="1"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -18693,7 +18740,7 @@
       <c r="Y749" s="1"/>
       <c r="Z749" s="1"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -18721,7 +18768,7 @@
       <c r="Y750" s="1"/>
       <c r="Z750" s="1"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -18749,7 +18796,7 @@
       <c r="Y751" s="1"/>
       <c r="Z751" s="1"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -18777,7 +18824,7 @@
       <c r="Y752" s="1"/>
       <c r="Z752" s="1"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -18805,7 +18852,7 @@
       <c r="Y753" s="1"/>
       <c r="Z753" s="1"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -18833,7 +18880,7 @@
       <c r="Y754" s="1"/>
       <c r="Z754" s="1"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -18861,7 +18908,7 @@
       <c r="Y755" s="1"/>
       <c r="Z755" s="1"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -18889,7 +18936,7 @@
       <c r="Y756" s="1"/>
       <c r="Z756" s="1"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -18917,7 +18964,7 @@
       <c r="Y757" s="1"/>
       <c r="Z757" s="1"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -18945,7 +18992,7 @@
       <c r="Y758" s="1"/>
       <c r="Z758" s="1"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -18973,7 +19020,7 @@
       <c r="Y759" s="1"/>
       <c r="Z759" s="1"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -19001,7 +19048,7 @@
       <c r="Y760" s="1"/>
       <c r="Z760" s="1"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -19029,7 +19076,7 @@
       <c r="Y761" s="1"/>
       <c r="Z761" s="1"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -19057,7 +19104,7 @@
       <c r="Y762" s="1"/>
       <c r="Z762" s="1"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -19085,7 +19132,7 @@
       <c r="Y763" s="1"/>
       <c r="Z763" s="1"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -19113,7 +19160,7 @@
       <c r="Y764" s="1"/>
       <c r="Z764" s="1"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -19141,7 +19188,7 @@
       <c r="Y765" s="1"/>
       <c r="Z765" s="1"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -19169,7 +19216,7 @@
       <c r="Y766" s="1"/>
       <c r="Z766" s="1"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -19197,7 +19244,7 @@
       <c r="Y767" s="1"/>
       <c r="Z767" s="1"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -19225,7 +19272,7 @@
       <c r="Y768" s="1"/>
       <c r="Z768" s="1"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -19253,7 +19300,7 @@
       <c r="Y769" s="1"/>
       <c r="Z769" s="1"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -19281,7 +19328,7 @@
       <c r="Y770" s="1"/>
       <c r="Z770" s="1"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -19309,7 +19356,7 @@
       <c r="Y771" s="1"/>
       <c r="Z771" s="1"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -19337,7 +19384,7 @@
       <c r="Y772" s="1"/>
       <c r="Z772" s="1"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -19365,7 +19412,7 @@
       <c r="Y773" s="1"/>
       <c r="Z773" s="1"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -19393,7 +19440,7 @@
       <c r="Y774" s="1"/>
       <c r="Z774" s="1"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -19421,7 +19468,7 @@
       <c r="Y775" s="1"/>
       <c r="Z775" s="1"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -19449,7 +19496,7 @@
       <c r="Y776" s="1"/>
       <c r="Z776" s="1"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -19477,7 +19524,7 @@
       <c r="Y777" s="1"/>
       <c r="Z777" s="1"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -19505,7 +19552,7 @@
       <c r="Y778" s="1"/>
       <c r="Z778" s="1"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -19533,7 +19580,7 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -19561,7 +19608,7 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -19589,7 +19636,7 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -19617,7 +19664,7 @@
       <c r="Y782" s="1"/>
       <c r="Z782" s="1"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -19645,7 +19692,7 @@
       <c r="Y783" s="1"/>
       <c r="Z783" s="1"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -19673,7 +19720,7 @@
       <c r="Y784" s="1"/>
       <c r="Z784" s="1"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -19701,7 +19748,7 @@
       <c r="Y785" s="1"/>
       <c r="Z785" s="1"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -19729,7 +19776,7 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -19757,7 +19804,7 @@
       <c r="Y787" s="1"/>
       <c r="Z787" s="1"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -19785,7 +19832,7 @@
       <c r="Y788" s="1"/>
       <c r="Z788" s="1"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -19813,7 +19860,7 @@
       <c r="Y789" s="1"/>
       <c r="Z789" s="1"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -19841,7 +19888,7 @@
       <c r="Y790" s="1"/>
       <c r="Z790" s="1"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -19869,7 +19916,7 @@
       <c r="Y791" s="1"/>
       <c r="Z791" s="1"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -19897,7 +19944,7 @@
       <c r="Y792" s="1"/>
       <c r="Z792" s="1"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -19925,7 +19972,7 @@
       <c r="Y793" s="1"/>
       <c r="Z793" s="1"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -19953,7 +20000,7 @@
       <c r="Y794" s="1"/>
       <c r="Z794" s="1"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -19981,7 +20028,7 @@
       <c r="Y795" s="1"/>
       <c r="Z795" s="1"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -20009,7 +20056,7 @@
       <c r="Y796" s="1"/>
       <c r="Z796" s="1"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -20037,7 +20084,7 @@
       <c r="Y797" s="1"/>
       <c r="Z797" s="1"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -20065,7 +20112,7 @@
       <c r="Y798" s="1"/>
       <c r="Z798" s="1"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -20093,7 +20140,7 @@
       <c r="Y799" s="1"/>
       <c r="Z799" s="1"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -20121,7 +20168,7 @@
       <c r="Y800" s="1"/>
       <c r="Z800" s="1"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -20149,7 +20196,7 @@
       <c r="Y801" s="1"/>
       <c r="Z801" s="1"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -20177,7 +20224,7 @@
       <c r="Y802" s="1"/>
       <c r="Z802" s="1"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -20205,7 +20252,7 @@
       <c r="Y803" s="1"/>
       <c r="Z803" s="1"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -20233,7 +20280,7 @@
       <c r="Y804" s="1"/>
       <c r="Z804" s="1"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -20261,7 +20308,7 @@
       <c r="Y805" s="1"/>
       <c r="Z805" s="1"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -20289,7 +20336,7 @@
       <c r="Y806" s="1"/>
       <c r="Z806" s="1"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -20317,7 +20364,7 @@
       <c r="Y807" s="1"/>
       <c r="Z807" s="1"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -20345,7 +20392,7 @@
       <c r="Y808" s="1"/>
       <c r="Z808" s="1"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -20373,7 +20420,7 @@
       <c r="Y809" s="1"/>
       <c r="Z809" s="1"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -20401,7 +20448,7 @@
       <c r="Y810" s="1"/>
       <c r="Z810" s="1"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -20429,7 +20476,7 @@
       <c r="Y811" s="1"/>
       <c r="Z811" s="1"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -20457,7 +20504,7 @@
       <c r="Y812" s="1"/>
       <c r="Z812" s="1"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -20485,7 +20532,7 @@
       <c r="Y813" s="1"/>
       <c r="Z813" s="1"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -20513,7 +20560,7 @@
       <c r="Y814" s="1"/>
       <c r="Z814" s="1"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -20541,7 +20588,7 @@
       <c r="Y815" s="1"/>
       <c r="Z815" s="1"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -20569,7 +20616,7 @@
       <c r="Y816" s="1"/>
       <c r="Z816" s="1"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -20597,7 +20644,7 @@
       <c r="Y817" s="1"/>
       <c r="Z817" s="1"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -20625,7 +20672,7 @@
       <c r="Y818" s="1"/>
       <c r="Z818" s="1"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -20653,7 +20700,7 @@
       <c r="Y819" s="1"/>
       <c r="Z819" s="1"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -20681,7 +20728,7 @@
       <c r="Y820" s="1"/>
       <c r="Z820" s="1"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -20709,7 +20756,7 @@
       <c r="Y821" s="1"/>
       <c r="Z821" s="1"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -20734,7 +20781,7 @@
       <c r="Y822" s="1"/>
       <c r="Z822" s="1"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -20759,7 +20806,7 @@
       <c r="Y823" s="1"/>
       <c r="Z823" s="1"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="M824" s="1"/>
       <c r="N824" s="1"/>
@@ -20776,7 +20823,7 @@
       <c r="Y824" s="1"/>
       <c r="Z824" s="1"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="M825" s="1"/>
       <c r="N825" s="1"/>
@@ -20793,7 +20840,7 @@
       <c r="Y825" s="1"/>
       <c r="Z825" s="1"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="M826" s="1"/>
       <c r="N826" s="1"/>
@@ -20810,7 +20857,7 @@
       <c r="Y826" s="1"/>
       <c r="Z826" s="1"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="M827" s="1"/>
       <c r="N827" s="1"/>
@@ -20827,7 +20874,7 @@
       <c r="Y827" s="1"/>
       <c r="Z827" s="1"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M828" s="1"/>
       <c r="N828" s="1"/>
       <c r="O828" s="1"/>
@@ -20843,7 +20890,7 @@
       <c r="Y828" s="1"/>
       <c r="Z828" s="1"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M829" s="1"/>
       <c r="N829" s="1"/>
       <c r="O829" s="1"/>
@@ -20859,7 +20906,7 @@
       <c r="Y829" s="1"/>
       <c r="Z829" s="1"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M830" s="1"/>
       <c r="N830" s="1"/>
       <c r="O830" s="1"/>
@@ -20875,7 +20922,7 @@
       <c r="Y830" s="1"/>
       <c r="Z830" s="1"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M831" s="1"/>
       <c r="N831" s="1"/>
       <c r="O831" s="1"/>
@@ -20891,7 +20938,7 @@
       <c r="Y831" s="1"/>
       <c r="Z831" s="1"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M832" s="1"/>
       <c r="N832" s="1"/>
       <c r="O832" s="1"/>
@@ -20907,7 +20954,7 @@
       <c r="Y832" s="1"/>
       <c r="Z832" s="1"/>
     </row>
-    <row r="833" spans="13:26" ht="15.75" customHeight="1">
+    <row r="833" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M833" s="1"/>
       <c r="N833" s="1"/>
       <c r="O833" s="1"/>
@@ -20923,7 +20970,7 @@
       <c r="Y833" s="1"/>
       <c r="Z833" s="1"/>
     </row>
-    <row r="834" spans="13:26" ht="15.75" customHeight="1">
+    <row r="834" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M834" s="1"/>
       <c r="N834" s="1"/>
       <c r="O834" s="1"/>
@@ -20939,7 +20986,7 @@
       <c r="Y834" s="1"/>
       <c r="Z834" s="1"/>
     </row>
-    <row r="835" spans="13:26" ht="15.75" customHeight="1">
+    <row r="835" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M835" s="1"/>
       <c r="N835" s="1"/>
       <c r="O835" s="1"/>
@@ -20955,7 +21002,7 @@
       <c r="Y835" s="1"/>
       <c r="Z835" s="1"/>
     </row>
-    <row r="836" spans="13:26" ht="15.75" customHeight="1">
+    <row r="836" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M836" s="1"/>
       <c r="N836" s="1"/>
       <c r="O836" s="1"/>
@@ -20971,7 +21018,7 @@
       <c r="Y836" s="1"/>
       <c r="Z836" s="1"/>
     </row>
-    <row r="837" spans="13:26" ht="15.75" customHeight="1">
+    <row r="837" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M837" s="1"/>
       <c r="N837" s="1"/>
       <c r="O837" s="1"/>
@@ -20987,7 +21034,7 @@
       <c r="Y837" s="1"/>
       <c r="Z837" s="1"/>
     </row>
-    <row r="838" spans="13:26" ht="15.75" customHeight="1">
+    <row r="838" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M838" s="1"/>
       <c r="N838" s="1"/>
       <c r="O838" s="1"/>
@@ -21003,7 +21050,7 @@
       <c r="Y838" s="1"/>
       <c r="Z838" s="1"/>
     </row>
-    <row r="839" spans="13:26" ht="15.75" customHeight="1">
+    <row r="839" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M839" s="1"/>
       <c r="N839" s="1"/>
       <c r="O839" s="1"/>
@@ -21019,7 +21066,7 @@
       <c r="Y839" s="1"/>
       <c r="Z839" s="1"/>
     </row>
-    <row r="840" spans="13:26" ht="15.75" customHeight="1">
+    <row r="840" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M840" s="1"/>
       <c r="N840" s="1"/>
       <c r="O840" s="1"/>
@@ -21035,7 +21082,7 @@
       <c r="Y840" s="1"/>
       <c r="Z840" s="1"/>
     </row>
-    <row r="841" spans="13:26" ht="15.75" customHeight="1">
+    <row r="841" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M841" s="1"/>
       <c r="N841" s="1"/>
       <c r="O841" s="1"/>
@@ -21051,7 +21098,7 @@
       <c r="Y841" s="1"/>
       <c r="Z841" s="1"/>
     </row>
-    <row r="842" spans="13:26" ht="15.75" customHeight="1">
+    <row r="842" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M842" s="1"/>
       <c r="N842" s="1"/>
       <c r="O842" s="1"/>
@@ -21067,7 +21114,7 @@
       <c r="Y842" s="1"/>
       <c r="Z842" s="1"/>
     </row>
-    <row r="843" spans="13:26" ht="15.75" customHeight="1">
+    <row r="843" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M843" s="1"/>
       <c r="N843" s="1"/>
       <c r="O843" s="1"/>
@@ -21083,7 +21130,7 @@
       <c r="Y843" s="1"/>
       <c r="Z843" s="1"/>
     </row>
-    <row r="844" spans="13:26" ht="15.75" customHeight="1">
+    <row r="844" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M844" s="1"/>
       <c r="N844" s="1"/>
       <c r="O844" s="1"/>
@@ -21099,7 +21146,7 @@
       <c r="Y844" s="1"/>
       <c r="Z844" s="1"/>
     </row>
-    <row r="845" spans="13:26" ht="15.75" customHeight="1">
+    <row r="845" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M845" s="1"/>
       <c r="N845" s="1"/>
       <c r="O845" s="1"/>
@@ -21115,7 +21162,7 @@
       <c r="Y845" s="1"/>
       <c r="Z845" s="1"/>
     </row>
-    <row r="846" spans="13:26" ht="15.75" customHeight="1">
+    <row r="846" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M846" s="1"/>
       <c r="N846" s="1"/>
       <c r="O846" s="1"/>
@@ -21131,7 +21178,7 @@
       <c r="Y846" s="1"/>
       <c r="Z846" s="1"/>
     </row>
-    <row r="847" spans="13:26" ht="15.75" customHeight="1">
+    <row r="847" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M847" s="1"/>
       <c r="N847" s="1"/>
       <c r="O847" s="1"/>
@@ -21147,7 +21194,7 @@
       <c r="Y847" s="1"/>
       <c r="Z847" s="1"/>
     </row>
-    <row r="848" spans="13:26" ht="15.75" customHeight="1">
+    <row r="848" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M848" s="1"/>
       <c r="N848" s="1"/>
       <c r="O848" s="1"/>
@@ -21163,7 +21210,7 @@
       <c r="Y848" s="1"/>
       <c r="Z848" s="1"/>
     </row>
-    <row r="849" spans="13:26" ht="15.75" customHeight="1">
+    <row r="849" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M849" s="1"/>
       <c r="N849" s="1"/>
       <c r="O849" s="1"/>
@@ -21179,7 +21226,7 @@
       <c r="Y849" s="1"/>
       <c r="Z849" s="1"/>
     </row>
-    <row r="850" spans="13:26" ht="15.75" customHeight="1">
+    <row r="850" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M850" s="1"/>
       <c r="N850" s="1"/>
       <c r="O850" s="1"/>
@@ -21195,7 +21242,7 @@
       <c r="Y850" s="1"/>
       <c r="Z850" s="1"/>
     </row>
-    <row r="851" spans="13:26" ht="15.75" customHeight="1">
+    <row r="851" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M851" s="1"/>
       <c r="N851" s="1"/>
       <c r="O851" s="1"/>
@@ -21211,7 +21258,7 @@
       <c r="Y851" s="1"/>
       <c r="Z851" s="1"/>
     </row>
-    <row r="852" spans="13:26" ht="15.75" customHeight="1">
+    <row r="852" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M852" s="1"/>
       <c r="N852" s="1"/>
       <c r="O852" s="1"/>
@@ -21227,7 +21274,7 @@
       <c r="Y852" s="1"/>
       <c r="Z852" s="1"/>
     </row>
-    <row r="853" spans="13:26" ht="15.75" customHeight="1">
+    <row r="853" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M853" s="1"/>
       <c r="N853" s="1"/>
       <c r="O853" s="1"/>
@@ -21243,7 +21290,7 @@
       <c r="Y853" s="1"/>
       <c r="Z853" s="1"/>
     </row>
-    <row r="854" spans="13:26" ht="15.75" customHeight="1">
+    <row r="854" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M854" s="1"/>
       <c r="N854" s="1"/>
       <c r="O854" s="1"/>
@@ -21259,7 +21306,7 @@
       <c r="Y854" s="1"/>
       <c r="Z854" s="1"/>
     </row>
-    <row r="855" spans="13:26" ht="15.75" customHeight="1">
+    <row r="855" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M855" s="1"/>
       <c r="N855" s="1"/>
       <c r="O855" s="1"/>
@@ -21275,7 +21322,7 @@
       <c r="Y855" s="1"/>
       <c r="Z855" s="1"/>
     </row>
-    <row r="856" spans="13:26" ht="15.75" customHeight="1">
+    <row r="856" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M856" s="1"/>
       <c r="N856" s="1"/>
       <c r="O856" s="1"/>
@@ -21291,7 +21338,7 @@
       <c r="Y856" s="1"/>
       <c r="Z856" s="1"/>
     </row>
-    <row r="857" spans="13:26" ht="15.75" customHeight="1">
+    <row r="857" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M857" s="1"/>
       <c r="N857" s="1"/>
       <c r="O857" s="1"/>
@@ -21307,7 +21354,7 @@
       <c r="Y857" s="1"/>
       <c r="Z857" s="1"/>
     </row>
-    <row r="858" spans="13:26" ht="15.75" customHeight="1">
+    <row r="858" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
       <c r="O858" s="1"/>
@@ -21323,7 +21370,7 @@
       <c r="Y858" s="1"/>
       <c r="Z858" s="1"/>
     </row>
-    <row r="859" spans="13:26" ht="15.75" customHeight="1">
+    <row r="859" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M859" s="1"/>
       <c r="N859" s="1"/>
       <c r="O859" s="1"/>
@@ -21339,7 +21386,7 @@
       <c r="Y859" s="1"/>
       <c r="Z859" s="1"/>
     </row>
-    <row r="860" spans="13:26" ht="15.75" customHeight="1">
+    <row r="860" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M860" s="1"/>
       <c r="N860" s="1"/>
       <c r="O860" s="1"/>
@@ -21355,7 +21402,7 @@
       <c r="Y860" s="1"/>
       <c r="Z860" s="1"/>
     </row>
-    <row r="861" spans="13:26" ht="15.75" customHeight="1">
+    <row r="861" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M861" s="1"/>
       <c r="N861" s="1"/>
       <c r="O861" s="1"/>
@@ -21371,7 +21418,7 @@
       <c r="Y861" s="1"/>
       <c r="Z861" s="1"/>
     </row>
-    <row r="862" spans="13:26" ht="15.75" customHeight="1">
+    <row r="862" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M862" s="1"/>
       <c r="N862" s="1"/>
       <c r="O862" s="1"/>
@@ -21387,7 +21434,7 @@
       <c r="Y862" s="1"/>
       <c r="Z862" s="1"/>
     </row>
-    <row r="863" spans="13:26" ht="15.75" customHeight="1">
+    <row r="863" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M863" s="1"/>
       <c r="N863" s="1"/>
       <c r="O863" s="1"/>
@@ -21403,7 +21450,7 @@
       <c r="Y863" s="1"/>
       <c r="Z863" s="1"/>
     </row>
-    <row r="864" spans="13:26" ht="15.75" customHeight="1">
+    <row r="864" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M864" s="1"/>
       <c r="N864" s="1"/>
       <c r="O864" s="1"/>
@@ -21419,7 +21466,7 @@
       <c r="Y864" s="1"/>
       <c r="Z864" s="1"/>
     </row>
-    <row r="865" spans="13:26" ht="15.75" customHeight="1">
+    <row r="865" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M865" s="1"/>
       <c r="N865" s="1"/>
       <c r="O865" s="1"/>
@@ -21435,7 +21482,7 @@
       <c r="Y865" s="1"/>
       <c r="Z865" s="1"/>
     </row>
-    <row r="866" spans="13:26" ht="15.75" customHeight="1">
+    <row r="866" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M866" s="1"/>
       <c r="N866" s="1"/>
       <c r="O866" s="1"/>
@@ -21451,7 +21498,7 @@
       <c r="Y866" s="1"/>
       <c r="Z866" s="1"/>
     </row>
-    <row r="867" spans="13:26" ht="15.75" customHeight="1">
+    <row r="867" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M867" s="1"/>
       <c r="N867" s="1"/>
       <c r="O867" s="1"/>
@@ -21467,7 +21514,7 @@
       <c r="Y867" s="1"/>
       <c r="Z867" s="1"/>
     </row>
-    <row r="868" spans="13:26" ht="15.75" customHeight="1">
+    <row r="868" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M868" s="1"/>
       <c r="N868" s="1"/>
       <c r="O868" s="1"/>
@@ -21483,7 +21530,7 @@
       <c r="Y868" s="1"/>
       <c r="Z868" s="1"/>
     </row>
-    <row r="869" spans="13:26" ht="15.75" customHeight="1">
+    <row r="869" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M869" s="1"/>
       <c r="N869" s="1"/>
       <c r="O869" s="1"/>
@@ -21499,7 +21546,7 @@
       <c r="Y869" s="1"/>
       <c r="Z869" s="1"/>
     </row>
-    <row r="870" spans="13:26" ht="15.75" customHeight="1">
+    <row r="870" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M870" s="1"/>
       <c r="N870" s="1"/>
       <c r="O870" s="1"/>
@@ -21515,7 +21562,7 @@
       <c r="Y870" s="1"/>
       <c r="Z870" s="1"/>
     </row>
-    <row r="871" spans="13:26" ht="15.75" customHeight="1">
+    <row r="871" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M871" s="1"/>
       <c r="N871" s="1"/>
       <c r="O871" s="1"/>
@@ -21531,7 +21578,7 @@
       <c r="Y871" s="1"/>
       <c r="Z871" s="1"/>
     </row>
-    <row r="872" spans="13:26" ht="15.75" customHeight="1">
+    <row r="872" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M872" s="1"/>
       <c r="N872" s="1"/>
       <c r="O872" s="1"/>
@@ -21547,7 +21594,7 @@
       <c r="Y872" s="1"/>
       <c r="Z872" s="1"/>
     </row>
-    <row r="873" spans="13:26" ht="15.75" customHeight="1">
+    <row r="873" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M873" s="1"/>
       <c r="N873" s="1"/>
       <c r="O873" s="1"/>
@@ -21563,7 +21610,7 @@
       <c r="Y873" s="1"/>
       <c r="Z873" s="1"/>
     </row>
-    <row r="874" spans="13:26" ht="15.75" customHeight="1">
+    <row r="874" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M874" s="1"/>
       <c r="N874" s="1"/>
       <c r="O874" s="1"/>
@@ -21579,7 +21626,7 @@
       <c r="Y874" s="1"/>
       <c r="Z874" s="1"/>
     </row>
-    <row r="875" spans="13:26" ht="15.75" customHeight="1">
+    <row r="875" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M875" s="1"/>
       <c r="N875" s="1"/>
       <c r="O875" s="1"/>
@@ -21595,7 +21642,7 @@
       <c r="Y875" s="1"/>
       <c r="Z875" s="1"/>
     </row>
-    <row r="876" spans="13:26" ht="15.75" customHeight="1">
+    <row r="876" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M876" s="1"/>
       <c r="N876" s="1"/>
       <c r="O876" s="1"/>
@@ -21611,7 +21658,7 @@
       <c r="Y876" s="1"/>
       <c r="Z876" s="1"/>
     </row>
-    <row r="877" spans="13:26" ht="15.75" customHeight="1">
+    <row r="877" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M877" s="1"/>
       <c r="N877" s="1"/>
       <c r="O877" s="1"/>
@@ -21627,7 +21674,7 @@
       <c r="Y877" s="1"/>
       <c r="Z877" s="1"/>
     </row>
-    <row r="878" spans="13:26" ht="15.75" customHeight="1">
+    <row r="878" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M878" s="1"/>
       <c r="N878" s="1"/>
       <c r="O878" s="1"/>
@@ -21643,7 +21690,7 @@
       <c r="Y878" s="1"/>
       <c r="Z878" s="1"/>
     </row>
-    <row r="879" spans="13:26" ht="15.75" customHeight="1">
+    <row r="879" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M879" s="1"/>
       <c r="N879" s="1"/>
       <c r="O879" s="1"/>
@@ -21659,7 +21706,7 @@
       <c r="Y879" s="1"/>
       <c r="Z879" s="1"/>
     </row>
-    <row r="880" spans="13:26" ht="15.75" customHeight="1">
+    <row r="880" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M880" s="1"/>
       <c r="N880" s="1"/>
       <c r="O880" s="1"/>
@@ -21675,7 +21722,7 @@
       <c r="Y880" s="1"/>
       <c r="Z880" s="1"/>
     </row>
-    <row r="881" spans="13:26" ht="15.75" customHeight="1">
+    <row r="881" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M881" s="1"/>
       <c r="N881" s="1"/>
       <c r="O881" s="1"/>
@@ -21691,7 +21738,7 @@
       <c r="Y881" s="1"/>
       <c r="Z881" s="1"/>
     </row>
-    <row r="882" spans="13:26" ht="15.75" customHeight="1">
+    <row r="882" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M882" s="1"/>
       <c r="N882" s="1"/>
       <c r="O882" s="1"/>
@@ -21707,7 +21754,7 @@
       <c r="Y882" s="1"/>
       <c r="Z882" s="1"/>
     </row>
-    <row r="883" spans="13:26" ht="15.75" customHeight="1">
+    <row r="883" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M883" s="1"/>
       <c r="N883" s="1"/>
       <c r="O883" s="1"/>
@@ -21723,7 +21770,7 @@
       <c r="Y883" s="1"/>
       <c r="Z883" s="1"/>
     </row>
-    <row r="884" spans="13:26" ht="15.75" customHeight="1">
+    <row r="884" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M884" s="1"/>
       <c r="N884" s="1"/>
       <c r="O884" s="1"/>
@@ -21739,7 +21786,7 @@
       <c r="Y884" s="1"/>
       <c r="Z884" s="1"/>
     </row>
-    <row r="885" spans="13:26" ht="15.75" customHeight="1">
+    <row r="885" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M885" s="1"/>
       <c r="N885" s="1"/>
       <c r="O885" s="1"/>
@@ -21755,7 +21802,7 @@
       <c r="Y885" s="1"/>
       <c r="Z885" s="1"/>
     </row>
-    <row r="886" spans="13:26" ht="15.75" customHeight="1">
+    <row r="886" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
       <c r="O886" s="1"/>
@@ -21771,7 +21818,7 @@
       <c r="Y886" s="1"/>
       <c r="Z886" s="1"/>
     </row>
-    <row r="887" spans="13:26" ht="15.75" customHeight="1">
+    <row r="887" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M887" s="1"/>
       <c r="N887" s="1"/>
       <c r="O887" s="1"/>
@@ -21787,7 +21834,7 @@
       <c r="Y887" s="1"/>
       <c r="Z887" s="1"/>
     </row>
-    <row r="888" spans="13:26" ht="15.75" customHeight="1">
+    <row r="888" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M888" s="1"/>
       <c r="N888" s="1"/>
       <c r="O888" s="1"/>
@@ -21803,7 +21850,7 @@
       <c r="Y888" s="1"/>
       <c r="Z888" s="1"/>
     </row>
-    <row r="889" spans="13:26" ht="15.75" customHeight="1">
+    <row r="889" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M889" s="1"/>
       <c r="N889" s="1"/>
       <c r="O889" s="1"/>
@@ -21819,7 +21866,7 @@
       <c r="Y889" s="1"/>
       <c r="Z889" s="1"/>
     </row>
-    <row r="890" spans="13:26" ht="15.75" customHeight="1">
+    <row r="890" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M890" s="1"/>
       <c r="N890" s="1"/>
       <c r="O890" s="1"/>
@@ -21835,7 +21882,7 @@
       <c r="Y890" s="1"/>
       <c r="Z890" s="1"/>
     </row>
-    <row r="891" spans="13:26" ht="15.75" customHeight="1">
+    <row r="891" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M891" s="1"/>
       <c r="N891" s="1"/>
       <c r="O891" s="1"/>
@@ -21851,7 +21898,7 @@
       <c r="Y891" s="1"/>
       <c r="Z891" s="1"/>
     </row>
-    <row r="892" spans="13:26" ht="15.75" customHeight="1">
+    <row r="892" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M892" s="1"/>
       <c r="N892" s="1"/>
       <c r="O892" s="1"/>
@@ -21867,7 +21914,7 @@
       <c r="Y892" s="1"/>
       <c r="Z892" s="1"/>
     </row>
-    <row r="893" spans="13:26" ht="15.75" customHeight="1">
+    <row r="893" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M893" s="1"/>
       <c r="N893" s="1"/>
       <c r="O893" s="1"/>
@@ -21883,7 +21930,7 @@
       <c r="Y893" s="1"/>
       <c r="Z893" s="1"/>
     </row>
-    <row r="894" spans="13:26" ht="15.75" customHeight="1">
+    <row r="894" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M894" s="1"/>
       <c r="N894" s="1"/>
       <c r="O894" s="1"/>
@@ -21899,7 +21946,7 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
-    <row r="895" spans="13:26" ht="15.75" customHeight="1">
+    <row r="895" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M895" s="1"/>
       <c r="N895" s="1"/>
       <c r="O895" s="1"/>
@@ -21915,7 +21962,7 @@
       <c r="Y895" s="1"/>
       <c r="Z895" s="1"/>
     </row>
-    <row r="896" spans="13:26" ht="15.75" customHeight="1">
+    <row r="896" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M896" s="1"/>
       <c r="N896" s="1"/>
       <c r="O896" s="1"/>
@@ -21931,7 +21978,7 @@
       <c r="Y896" s="1"/>
       <c r="Z896" s="1"/>
     </row>
-    <row r="897" spans="13:26" ht="15.75" customHeight="1">
+    <row r="897" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M897" s="1"/>
       <c r="N897" s="1"/>
       <c r="O897" s="1"/>
@@ -21947,7 +21994,7 @@
       <c r="Y897" s="1"/>
       <c r="Z897" s="1"/>
     </row>
-    <row r="898" spans="13:26" ht="15.75" customHeight="1">
+    <row r="898" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M898" s="1"/>
       <c r="N898" s="1"/>
       <c r="O898" s="1"/>
@@ -21963,7 +22010,7 @@
       <c r="Y898" s="1"/>
       <c r="Z898" s="1"/>
     </row>
-    <row r="899" spans="13:26" ht="15.75" customHeight="1">
+    <row r="899" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M899" s="1"/>
       <c r="N899" s="1"/>
       <c r="O899" s="1"/>
@@ -21979,7 +22026,7 @@
       <c r="Y899" s="1"/>
       <c r="Z899" s="1"/>
     </row>
-    <row r="900" spans="13:26" ht="15.75" customHeight="1">
+    <row r="900" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M900" s="1"/>
       <c r="N900" s="1"/>
       <c r="O900" s="1"/>
@@ -21995,7 +22042,7 @@
       <c r="Y900" s="1"/>
       <c r="Z900" s="1"/>
     </row>
-    <row r="901" spans="13:26" ht="15.75" customHeight="1">
+    <row r="901" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M901" s="1"/>
       <c r="N901" s="1"/>
       <c r="O901" s="1"/>
@@ -22011,7 +22058,7 @@
       <c r="Y901" s="1"/>
       <c r="Z901" s="1"/>
     </row>
-    <row r="902" spans="13:26" ht="15.75" customHeight="1">
+    <row r="902" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M902" s="1"/>
       <c r="N902" s="1"/>
       <c r="O902" s="1"/>
@@ -22027,7 +22074,7 @@
       <c r="Y902" s="1"/>
       <c r="Z902" s="1"/>
     </row>
-    <row r="903" spans="13:26" ht="15.75" customHeight="1">
+    <row r="903" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M903" s="1"/>
       <c r="N903" s="1"/>
       <c r="O903" s="1"/>
@@ -22043,7 +22090,7 @@
       <c r="Y903" s="1"/>
       <c r="Z903" s="1"/>
     </row>
-    <row r="904" spans="13:26" ht="15.75" customHeight="1">
+    <row r="904" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M904" s="1"/>
       <c r="N904" s="1"/>
       <c r="O904" s="1"/>
@@ -22059,7 +22106,7 @@
       <c r="Y904" s="1"/>
       <c r="Z904" s="1"/>
     </row>
-    <row r="905" spans="13:26" ht="15.75" customHeight="1">
+    <row r="905" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M905" s="1"/>
       <c r="N905" s="1"/>
       <c r="O905" s="1"/>
@@ -22075,7 +22122,7 @@
       <c r="Y905" s="1"/>
       <c r="Z905" s="1"/>
     </row>
-    <row r="906" spans="13:26" ht="15.75" customHeight="1">
+    <row r="906" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M906" s="1"/>
       <c r="N906" s="1"/>
       <c r="O906" s="1"/>
@@ -22091,7 +22138,7 @@
       <c r="Y906" s="1"/>
       <c r="Z906" s="1"/>
     </row>
-    <row r="907" spans="13:26" ht="15.75" customHeight="1">
+    <row r="907" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M907" s="1"/>
       <c r="N907" s="1"/>
       <c r="O907" s="1"/>
@@ -22107,7 +22154,7 @@
       <c r="Y907" s="1"/>
       <c r="Z907" s="1"/>
     </row>
-    <row r="908" spans="13:26" ht="15.75" customHeight="1">
+    <row r="908" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M908" s="1"/>
       <c r="N908" s="1"/>
       <c r="O908" s="1"/>
@@ -22123,7 +22170,7 @@
       <c r="Y908" s="1"/>
       <c r="Z908" s="1"/>
     </row>
-    <row r="909" spans="13:26" ht="15.75" customHeight="1">
+    <row r="909" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M909" s="1"/>
       <c r="N909" s="1"/>
       <c r="O909" s="1"/>
@@ -22139,7 +22186,7 @@
       <c r="Y909" s="1"/>
       <c r="Z909" s="1"/>
     </row>
-    <row r="910" spans="13:26" ht="15.75" customHeight="1">
+    <row r="910" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M910" s="1"/>
       <c r="N910" s="1"/>
       <c r="O910" s="1"/>
@@ -22155,7 +22202,7 @@
       <c r="Y910" s="1"/>
       <c r="Z910" s="1"/>
     </row>
-    <row r="911" spans="13:26" ht="15.75" customHeight="1">
+    <row r="911" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M911" s="1"/>
       <c r="N911" s="1"/>
       <c r="O911" s="1"/>
@@ -22171,7 +22218,7 @@
       <c r="Y911" s="1"/>
       <c r="Z911" s="1"/>
     </row>
-    <row r="912" spans="13:26" ht="15.75" customHeight="1">
+    <row r="912" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M912" s="1"/>
       <c r="N912" s="1"/>
       <c r="O912" s="1"/>
@@ -22187,7 +22234,7 @@
       <c r="Y912" s="1"/>
       <c r="Z912" s="1"/>
     </row>
-    <row r="913" spans="13:26" ht="15.75" customHeight="1">
+    <row r="913" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
       <c r="O913" s="1"/>
@@ -22203,7 +22250,7 @@
       <c r="Y913" s="1"/>
       <c r="Z913" s="1"/>
     </row>
-    <row r="914" spans="13:26" ht="15.75" customHeight="1">
+    <row r="914" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M914" s="1"/>
       <c r="N914" s="1"/>
       <c r="O914" s="1"/>
@@ -22219,7 +22266,7 @@
       <c r="Y914" s="1"/>
       <c r="Z914" s="1"/>
     </row>
-    <row r="915" spans="13:26" ht="15.75" customHeight="1">
+    <row r="915" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M915" s="1"/>
       <c r="N915" s="1"/>
       <c r="O915" s="1"/>
@@ -22235,7 +22282,7 @@
       <c r="Y915" s="1"/>
       <c r="Z915" s="1"/>
     </row>
-    <row r="916" spans="13:26" ht="15.75" customHeight="1">
+    <row r="916" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M916" s="1"/>
       <c r="N916" s="1"/>
       <c r="O916" s="1"/>
@@ -22251,7 +22298,7 @@
       <c r="Y916" s="1"/>
       <c r="Z916" s="1"/>
     </row>
-    <row r="917" spans="13:26" ht="15.75" customHeight="1">
+    <row r="917" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M917" s="1"/>
       <c r="N917" s="1"/>
       <c r="O917" s="1"/>
@@ -22267,7 +22314,7 @@
       <c r="Y917" s="1"/>
       <c r="Z917" s="1"/>
     </row>
-    <row r="918" spans="13:26" ht="15.75" customHeight="1">
+    <row r="918" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M918" s="1"/>
       <c r="N918" s="1"/>
       <c r="O918" s="1"/>
@@ -22283,7 +22330,7 @@
       <c r="Y918" s="1"/>
       <c r="Z918" s="1"/>
     </row>
-    <row r="919" spans="13:26" ht="15.75" customHeight="1">
+    <row r="919" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M919" s="1"/>
       <c r="N919" s="1"/>
       <c r="O919" s="1"/>
@@ -22299,7 +22346,7 @@
       <c r="Y919" s="1"/>
       <c r="Z919" s="1"/>
     </row>
-    <row r="920" spans="13:26" ht="15.75" customHeight="1">
+    <row r="920" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M920" s="1"/>
       <c r="N920" s="1"/>
       <c r="O920" s="1"/>
@@ -22315,7 +22362,7 @@
       <c r="Y920" s="1"/>
       <c r="Z920" s="1"/>
     </row>
-    <row r="921" spans="13:26" ht="15.75" customHeight="1">
+    <row r="921" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M921" s="1"/>
       <c r="N921" s="1"/>
       <c r="O921" s="1"/>
@@ -22331,7 +22378,7 @@
       <c r="Y921" s="1"/>
       <c r="Z921" s="1"/>
     </row>
-    <row r="922" spans="13:26" ht="15.75" customHeight="1">
+    <row r="922" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M922" s="1"/>
       <c r="N922" s="1"/>
       <c r="O922" s="1"/>
@@ -22347,7 +22394,7 @@
       <c r="Y922" s="1"/>
       <c r="Z922" s="1"/>
     </row>
-    <row r="923" spans="13:26" ht="15.75" customHeight="1">
+    <row r="923" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M923" s="1"/>
       <c r="N923" s="1"/>
       <c r="O923" s="1"/>
@@ -22363,7 +22410,7 @@
       <c r="Y923" s="1"/>
       <c r="Z923" s="1"/>
     </row>
-    <row r="924" spans="13:26" ht="15.75" customHeight="1">
+    <row r="924" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M924" s="1"/>
       <c r="N924" s="1"/>
       <c r="O924" s="1"/>
@@ -22379,7 +22426,7 @@
       <c r="Y924" s="1"/>
       <c r="Z924" s="1"/>
     </row>
-    <row r="925" spans="13:26" ht="15.75" customHeight="1">
+    <row r="925" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M925" s="1"/>
       <c r="N925" s="1"/>
       <c r="O925" s="1"/>
@@ -22395,7 +22442,7 @@
       <c r="Y925" s="1"/>
       <c r="Z925" s="1"/>
     </row>
-    <row r="926" spans="13:26" ht="15.75" customHeight="1">
+    <row r="926" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M926" s="1"/>
       <c r="N926" s="1"/>
       <c r="O926" s="1"/>
@@ -22411,7 +22458,7 @@
       <c r="Y926" s="1"/>
       <c r="Z926" s="1"/>
     </row>
-    <row r="927" spans="13:26" ht="15.75" customHeight="1">
+    <row r="927" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M927" s="1"/>
       <c r="N927" s="1"/>
       <c r="O927" s="1"/>
@@ -22427,7 +22474,7 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" spans="13:26" ht="15.75" customHeight="1">
+    <row r="928" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M928" s="1"/>
       <c r="N928" s="1"/>
       <c r="O928" s="1"/>
@@ -22443,7 +22490,7 @@
       <c r="Y928" s="1"/>
       <c r="Z928" s="1"/>
     </row>
-    <row r="929" spans="13:26" ht="15.75" customHeight="1">
+    <row r="929" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M929" s="1"/>
       <c r="N929" s="1"/>
       <c r="O929" s="1"/>
@@ -22459,7 +22506,7 @@
       <c r="Y929" s="1"/>
       <c r="Z929" s="1"/>
     </row>
-    <row r="930" spans="13:26" ht="15.75" customHeight="1">
+    <row r="930" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M930" s="1"/>
       <c r="N930" s="1"/>
       <c r="O930" s="1"/>
@@ -22475,7 +22522,7 @@
       <c r="Y930" s="1"/>
       <c r="Z930" s="1"/>
     </row>
-    <row r="931" spans="13:26" ht="15.75" customHeight="1">
+    <row r="931" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M931" s="1"/>
       <c r="N931" s="1"/>
       <c r="O931" s="1"/>
@@ -22491,7 +22538,7 @@
       <c r="Y931" s="1"/>
       <c r="Z931" s="1"/>
     </row>
-    <row r="932" spans="13:26" ht="15.75" customHeight="1">
+    <row r="932" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M932" s="1"/>
       <c r="N932" s="1"/>
       <c r="O932" s="1"/>
@@ -22507,7 +22554,7 @@
       <c r="Y932" s="1"/>
       <c r="Z932" s="1"/>
     </row>
-    <row r="933" spans="13:26" ht="15.75" customHeight="1">
+    <row r="933" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M933" s="1"/>
       <c r="N933" s="1"/>
       <c r="O933" s="1"/>
@@ -22523,7 +22570,7 @@
       <c r="Y933" s="1"/>
       <c r="Z933" s="1"/>
     </row>
-    <row r="934" spans="13:26" ht="15.75" customHeight="1">
+    <row r="934" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M934" s="1"/>
       <c r="N934" s="1"/>
       <c r="O934" s="1"/>
@@ -22539,7 +22586,7 @@
       <c r="Y934" s="1"/>
       <c r="Z934" s="1"/>
     </row>
-    <row r="935" spans="13:26" ht="15.75" customHeight="1">
+    <row r="935" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M935" s="1"/>
       <c r="N935" s="1"/>
       <c r="O935" s="1"/>
@@ -22555,7 +22602,7 @@
       <c r="Y935" s="1"/>
       <c r="Z935" s="1"/>
     </row>
-    <row r="936" spans="13:26" ht="15.75" customHeight="1">
+    <row r="936" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M936" s="1"/>
       <c r="N936" s="1"/>
       <c r="O936" s="1"/>
@@ -22571,7 +22618,7 @@
       <c r="Y936" s="1"/>
       <c r="Z936" s="1"/>
     </row>
-    <row r="937" spans="13:26" ht="15.75" customHeight="1">
+    <row r="937" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M937" s="1"/>
       <c r="N937" s="1"/>
       <c r="O937" s="1"/>
@@ -22587,7 +22634,7 @@
       <c r="Y937" s="1"/>
       <c r="Z937" s="1"/>
     </row>
-    <row r="938" spans="13:26" ht="15.75" customHeight="1">
+    <row r="938" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M938" s="1"/>
       <c r="N938" s="1"/>
       <c r="O938" s="1"/>
@@ -22603,7 +22650,7 @@
       <c r="Y938" s="1"/>
       <c r="Z938" s="1"/>
     </row>
-    <row r="939" spans="13:26" ht="15.75" customHeight="1">
+    <row r="939" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M939" s="1"/>
       <c r="N939" s="1"/>
       <c r="O939" s="1"/>
@@ -22619,7 +22666,7 @@
       <c r="Y939" s="1"/>
       <c r="Z939" s="1"/>
     </row>
-    <row r="940" spans="13:26" ht="15.75" customHeight="1">
+    <row r="940" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M940" s="1"/>
       <c r="N940" s="1"/>
       <c r="O940" s="1"/>
@@ -22635,7 +22682,7 @@
       <c r="Y940" s="1"/>
       <c r="Z940" s="1"/>
     </row>
-    <row r="941" spans="13:26" ht="15.75" customHeight="1">
+    <row r="941" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M941" s="1"/>
       <c r="N941" s="1"/>
       <c r="O941" s="1"/>
@@ -22651,7 +22698,7 @@
       <c r="Y941" s="1"/>
       <c r="Z941" s="1"/>
     </row>
-    <row r="942" spans="13:26" ht="15.75" customHeight="1">
+    <row r="942" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M942" s="1"/>
       <c r="N942" s="1"/>
       <c r="O942" s="1"/>
@@ -22667,7 +22714,7 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="13:26" ht="15.75" customHeight="1">
+    <row r="943" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M943" s="1"/>
       <c r="N943" s="1"/>
       <c r="O943" s="1"/>
@@ -22683,7 +22730,7 @@
       <c r="Y943" s="1"/>
       <c r="Z943" s="1"/>
     </row>
-    <row r="944" spans="13:26" ht="15.75" customHeight="1">
+    <row r="944" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M944" s="1"/>
       <c r="N944" s="1"/>
       <c r="O944" s="1"/>
@@ -22699,7 +22746,7 @@
       <c r="Y944" s="1"/>
       <c r="Z944" s="1"/>
     </row>
-    <row r="945" spans="13:26" ht="15.75" customHeight="1">
+    <row r="945" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M945" s="1"/>
       <c r="N945" s="1"/>
       <c r="O945" s="1"/>
@@ -22715,7 +22762,7 @@
       <c r="Y945" s="1"/>
       <c r="Z945" s="1"/>
     </row>
-    <row r="946" spans="13:26" ht="15.75" customHeight="1">
+    <row r="946" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M946" s="1"/>
       <c r="N946" s="1"/>
       <c r="O946" s="1"/>
@@ -22731,7 +22778,7 @@
       <c r="Y946" s="1"/>
       <c r="Z946" s="1"/>
     </row>
-    <row r="947" spans="13:26" ht="15.75" customHeight="1">
+    <row r="947" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M947" s="1"/>
       <c r="N947" s="1"/>
       <c r="O947" s="1"/>
@@ -22747,7 +22794,7 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="13:26" ht="15.75" customHeight="1">
+    <row r="948" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M948" s="1"/>
       <c r="N948" s="1"/>
       <c r="O948" s="1"/>
@@ -22763,7 +22810,7 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="13:26" ht="15.75" customHeight="1">
+    <row r="949" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M949" s="1"/>
       <c r="N949" s="1"/>
       <c r="O949" s="1"/>
@@ -22779,7 +22826,7 @@
       <c r="Y949" s="1"/>
       <c r="Z949" s="1"/>
     </row>
-    <row r="950" spans="13:26" ht="15.75" customHeight="1">
+    <row r="950" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M950" s="1"/>
       <c r="N950" s="1"/>
       <c r="O950" s="1"/>
@@ -22795,7 +22842,7 @@
       <c r="Y950" s="1"/>
       <c r="Z950" s="1"/>
     </row>
-    <row r="951" spans="13:26" ht="15.75" customHeight="1">
+    <row r="951" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M951" s="1"/>
       <c r="N951" s="1"/>
       <c r="O951" s="1"/>
@@ -22811,7 +22858,7 @@
       <c r="Y951" s="1"/>
       <c r="Z951" s="1"/>
     </row>
-    <row r="952" spans="13:26" ht="15.75" customHeight="1">
+    <row r="952" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M952" s="1"/>
       <c r="N952" s="1"/>
       <c r="O952" s="1"/>
@@ -22827,7 +22874,7 @@
       <c r="Y952" s="1"/>
       <c r="Z952" s="1"/>
     </row>
-    <row r="953" spans="13:26" ht="15.75" customHeight="1">
+    <row r="953" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M953" s="1"/>
       <c r="N953" s="1"/>
       <c r="O953" s="1"/>
@@ -22843,7 +22890,7 @@
       <c r="Y953" s="1"/>
       <c r="Z953" s="1"/>
     </row>
-    <row r="954" spans="13:26" ht="15.75" customHeight="1">
+    <row r="954" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M954" s="1"/>
       <c r="N954" s="1"/>
       <c r="O954" s="1"/>
@@ -22859,7 +22906,7 @@
       <c r="Y954" s="1"/>
       <c r="Z954" s="1"/>
     </row>
-    <row r="955" spans="13:26" ht="15.75" customHeight="1">
+    <row r="955" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M955" s="1"/>
       <c r="N955" s="1"/>
       <c r="O955" s="1"/>
@@ -22875,7 +22922,7 @@
       <c r="Y955" s="1"/>
       <c r="Z955" s="1"/>
     </row>
-    <row r="956" spans="13:26" ht="15.75" customHeight="1">
+    <row r="956" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M956" s="1"/>
       <c r="N956" s="1"/>
       <c r="O956" s="1"/>
@@ -22891,7 +22938,7 @@
       <c r="Y956" s="1"/>
       <c r="Z956" s="1"/>
     </row>
-    <row r="957" spans="13:26" ht="15.75" customHeight="1">
+    <row r="957" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M957" s="1"/>
       <c r="N957" s="1"/>
       <c r="O957" s="1"/>
@@ -22907,7 +22954,7 @@
       <c r="Y957" s="1"/>
       <c r="Z957" s="1"/>
     </row>
-    <row r="958" spans="13:26" ht="15.75" customHeight="1">
+    <row r="958" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M958" s="1"/>
       <c r="N958" s="1"/>
       <c r="O958" s="1"/>
@@ -22923,7 +22970,7 @@
       <c r="Y958" s="1"/>
       <c r="Z958" s="1"/>
     </row>
-    <row r="959" spans="13:26" ht="15.75" customHeight="1">
+    <row r="959" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M959" s="1"/>
       <c r="N959" s="1"/>
       <c r="O959" s="1"/>
@@ -22939,7 +22986,7 @@
       <c r="Y959" s="1"/>
       <c r="Z959" s="1"/>
     </row>
-    <row r="960" spans="13:26" ht="15.75" customHeight="1">
+    <row r="960" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M960" s="1"/>
       <c r="N960" s="1"/>
       <c r="O960" s="1"/>
@@ -22955,7 +23002,7 @@
       <c r="Y960" s="1"/>
       <c r="Z960" s="1"/>
     </row>
-    <row r="961" spans="13:26" ht="15.75" customHeight="1">
+    <row r="961" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M961" s="1"/>
       <c r="N961" s="1"/>
       <c r="O961" s="1"/>
@@ -22971,7 +23018,7 @@
       <c r="Y961" s="1"/>
       <c r="Z961" s="1"/>
     </row>
-    <row r="962" spans="13:26" ht="15.75" customHeight="1">
+    <row r="962" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M962" s="1"/>
       <c r="N962" s="1"/>
       <c r="O962" s="1"/>
@@ -22987,7 +23034,7 @@
       <c r="Y962" s="1"/>
       <c r="Z962" s="1"/>
     </row>
-    <row r="963" spans="13:26" ht="15.75" customHeight="1">
+    <row r="963" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M963" s="1"/>
       <c r="N963" s="1"/>
       <c r="O963" s="1"/>
@@ -23003,7 +23050,7 @@
       <c r="Y963" s="1"/>
       <c r="Z963" s="1"/>
     </row>
-    <row r="964" spans="13:26" ht="15.75" customHeight="1">
+    <row r="964" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M964" s="1"/>
       <c r="N964" s="1"/>
       <c r="O964" s="1"/>
@@ -23019,7 +23066,7 @@
       <c r="Y964" s="1"/>
       <c r="Z964" s="1"/>
     </row>
-    <row r="965" spans="13:26" ht="15.75" customHeight="1">
+    <row r="965" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M965" s="1"/>
       <c r="N965" s="1"/>
       <c r="O965" s="1"/>
@@ -23035,7 +23082,7 @@
       <c r="Y965" s="1"/>
       <c r="Z965" s="1"/>
     </row>
-    <row r="966" spans="13:26" ht="15.75" customHeight="1">
+    <row r="966" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M966" s="1"/>
       <c r="N966" s="1"/>
       <c r="O966" s="1"/>
@@ -23051,7 +23098,7 @@
       <c r="Y966" s="1"/>
       <c r="Z966" s="1"/>
     </row>
-    <row r="967" spans="13:26" ht="15.75" customHeight="1">
+    <row r="967" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M967" s="1"/>
       <c r="N967" s="1"/>
       <c r="O967" s="1"/>
@@ -23067,7 +23114,7 @@
       <c r="Y967" s="1"/>
       <c r="Z967" s="1"/>
     </row>
-    <row r="968" spans="13:26" ht="15.75" customHeight="1">
+    <row r="968" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M968" s="1"/>
       <c r="N968" s="1"/>
       <c r="O968" s="1"/>
@@ -23083,7 +23130,7 @@
       <c r="Y968" s="1"/>
       <c r="Z968" s="1"/>
     </row>
-    <row r="969" spans="13:26" ht="15.75" customHeight="1">
+    <row r="969" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M969" s="1"/>
       <c r="N969" s="1"/>
       <c r="O969" s="1"/>
@@ -23099,7 +23146,7 @@
       <c r="Y969" s="1"/>
       <c r="Z969" s="1"/>
     </row>
-    <row r="970" spans="13:26" ht="15.75" customHeight="1">
+    <row r="970" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M970" s="1"/>
       <c r="N970" s="1"/>
       <c r="O970" s="1"/>
@@ -23115,7 +23162,7 @@
       <c r="Y970" s="1"/>
       <c r="Z970" s="1"/>
     </row>
-    <row r="971" spans="13:26" ht="15.75" customHeight="1">
+    <row r="971" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M971" s="1"/>
       <c r="N971" s="1"/>
       <c r="O971" s="1"/>
@@ -23131,7 +23178,7 @@
       <c r="Y971" s="1"/>
       <c r="Z971" s="1"/>
     </row>
-    <row r="972" spans="13:26" ht="15.75" customHeight="1">
+    <row r="972" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M972" s="1"/>
       <c r="N972" s="1"/>
       <c r="O972" s="1"/>
@@ -23147,7 +23194,7 @@
       <c r="Y972" s="1"/>
       <c r="Z972" s="1"/>
     </row>
-    <row r="973" spans="13:26" ht="15.75" customHeight="1">
+    <row r="973" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M973" s="1"/>
       <c r="N973" s="1"/>
       <c r="O973" s="1"/>
@@ -23163,7 +23210,7 @@
       <c r="Y973" s="1"/>
       <c r="Z973" s="1"/>
     </row>
-    <row r="974" spans="13:26" ht="15.75" customHeight="1">
+    <row r="974" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M974" s="1"/>
       <c r="N974" s="1"/>
       <c r="O974" s="1"/>
@@ -23179,7 +23226,7 @@
       <c r="Y974" s="1"/>
       <c r="Z974" s="1"/>
     </row>
-    <row r="975" spans="13:26" ht="15.75" customHeight="1">
+    <row r="975" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M975" s="1"/>
       <c r="N975" s="1"/>
       <c r="O975" s="1"/>
@@ -23195,7 +23242,7 @@
       <c r="Y975" s="1"/>
       <c r="Z975" s="1"/>
     </row>
-    <row r="976" spans="13:26" ht="15.75" customHeight="1">
+    <row r="976" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M976" s="1"/>
       <c r="N976" s="1"/>
       <c r="O976" s="1"/>
@@ -23211,7 +23258,7 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="13:26" ht="15.75" customHeight="1">
+    <row r="977" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M977" s="1"/>
       <c r="N977" s="1"/>
       <c r="O977" s="1"/>
@@ -23227,7 +23274,7 @@
       <c r="Y977" s="1"/>
       <c r="Z977" s="1"/>
     </row>
-    <row r="978" spans="13:26" ht="15.75" customHeight="1">
+    <row r="978" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M978" s="1"/>
       <c r="N978" s="1"/>
       <c r="O978" s="1"/>
@@ -23243,7 +23290,7 @@
       <c r="Y978" s="1"/>
       <c r="Z978" s="1"/>
     </row>
-    <row r="979" spans="13:26" ht="15.75" customHeight="1">
+    <row r="979" spans="13:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M979" s="1"/>
       <c r="N979" s="1"/>
       <c r="O979" s="1"/>
@@ -23261,6 +23308,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="H3:H13"/>
     <mergeCell ref="M1:N15"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I3:L3"/>
@@ -23273,19 +23333,6 @@
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="H3:H13"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.43333333333333335" right="0.2" top="0.2298611111111111" bottom="0.3298611111111111" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
